--- a/Resultados/OE 2020 -  Teste2_Implementação Numérica SGA.xlsx
+++ b/Resultados/OE 2020 -  Teste2_Implementação Numérica SGA.xlsx
@@ -102,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000000000_ "/>
-    <numFmt numFmtId="177" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000000_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.000000000000_ "/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -155,6 +155,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -169,9 +182,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -184,67 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -257,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -268,8 +253,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -312,7 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC2D69A"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -324,13 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -342,13 +348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B4"/>
+        <fgColor rgb="FFD7E3BB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -360,7 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -372,37 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2D69A"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7E3BB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2DCDB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -414,73 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8B7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BACC6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA9694"/>
+        <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -493,6 +457,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -946,21 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1006,21 +991,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FF4F81BD"/>
       </top>
       <bottom style="double">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF4F81BD"/>
       </bottom>
       <diagonal/>
@@ -1038,6 +1029,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1046,148 +1046,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,16 +1224,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,10 +1250,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1262,10 +1262,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1297,20 +1297,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,168 +1839,54 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$AQ$7:$AQ$31</c:f>
+              <c:f>Plan1!$W$5:$AB$5</c:f>
               <c:numCache>
-                <c:formatCode>#,000_);[Red]\(#,000\)</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>250</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>500</c:v>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>750</c:v>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1000</c:v>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1500</c:v>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>100000</c:v>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$AR$7:$AR$31</c:f>
+              <c:f>Plan1!$W$57:$AB$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>154.205904321734</c:v>
+                  <c:v>11.8179263453101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.031337374949</c:v>
+                  <c:v>6.84380146617304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.0755701222785</c:v>
+                  <c:v>4.91488946204771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.6561686432887</c:v>
+                  <c:v>4.00888988778348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.7530701087832</c:v>
+                  <c:v>3.54038381652246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.2614582374191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.6431245211396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.64025592051161</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.20387676025361</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.45330725109049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.59224828581114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.00301756671206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.70531103324657</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.49755358526941</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.10401415962281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01391316186543</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.960225882478795</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.921692474755772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8637167414282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.808661664039517</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.792672339713392</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.778072387122497</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.764101895578765</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.747387955889417</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.743096936963935</c:v>
+                  <c:v>3.59212028146308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,11 +1903,11 @@
         </c:dLbls>
         <c:marker val="false"/>
         <c:smooth val="false"/>
-        <c:axId val="408850145"/>
-        <c:axId val="846850929"/>
+        <c:axId val="720480586"/>
+        <c:axId val="11950325"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408850145"/>
+        <c:axId val="720480586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +1948,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846850929"/>
+        <c:crossAx val="11950325"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +1956,7 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="846850929"/>
+        <c:axId val="11950325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +1976,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000_ " sourceLinked="true"/>
+        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2120,7 +2006,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408850145"/>
+        <c:crossAx val="720480586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2160,9 +2046,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="false"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2236,168 +2124,54 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$AQ$7:$AQ$31</c:f>
+              <c:f>Plan1!$AC$5:$AH$5</c:f>
               <c:numCache>
-                <c:formatCode>#,000_);[Red]\(#,000\)</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>250</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>500</c:v>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>750</c:v>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1000</c:v>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1500</c:v>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>100000</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$AR$7:$AR$31</c:f>
+              <c:f>Plan1!$AC$57:$AH$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>154.205904321734</c:v>
+                  <c:v>1.59622674399063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.031337374949</c:v>
+                  <c:v>1.78731302858225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.0755701222785</c:v>
+                  <c:v>2.48737552416258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.6561686432887</c:v>
+                  <c:v>3.79085674760272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.7530701087832</c:v>
+                  <c:v>5.69615830571196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.2614582374191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.6431245211396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.64025592051161</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.20387676025361</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.45330725109049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.59224828581114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.00301756671206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.70531103324657</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.49755358526941</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.10401415962281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01391316186543</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.960225882478795</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.921692474755772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8637167414282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.808661664039517</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.792672339713392</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.778072387122497</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.764101895578765</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.747387955889417</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.743096936963935</c:v>
+                  <c:v>9.59638846351782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="false"/>
         <c:smooth val="false"/>
-        <c:axId val="408850145"/>
-        <c:axId val="846850929"/>
+        <c:axId val="931566490"/>
+        <c:axId val="937883612"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408850145"/>
+        <c:axId val="931566490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2233,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846850929"/>
+        <c:crossAx val="937883612"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2467,7 +2241,7 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="846850929"/>
+        <c:axId val="937883612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2261,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000_ " sourceLinked="true"/>
+        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2517,7 +2291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408850145"/>
+        <c:crossAx val="931566490"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,9 +2331,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="false"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2609,7 +2385,17 @@
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.243582255597274"/>
+          <c:y val="0.18630201028518"/>
+          <c:w val="0.730830204422194"/>
+          <c:h val="0.709303412809724"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="false"/>
@@ -2633,168 +2419,54 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$AQ$7:$AQ$31</c:f>
+              <c:f>Plan1!$AI$5:$AN$5</c:f>
               <c:numCache>
-                <c:formatCode>#,000_);[Red]\(#,000\)</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>250</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.005</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>500</c:v>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>750</c:v>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1000</c:v>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>1500</c:v>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="#,000_);[Red]\(#,000\)">
-                  <c:v>100000</c:v>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$AR$7:$AR$31</c:f>
+              <c:f>Plan1!$AI$57:$AN$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>154.205904321734</c:v>
+                  <c:v>0.740595157489052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.031337374949</c:v>
+                  <c:v>1.5905204354661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.0755701222785</c:v>
+                  <c:v>29.1264661774046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.6561686432887</c:v>
+                  <c:v>48.5955421903361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.7530701087832</c:v>
+                  <c:v>67.0435116537246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.2614582374191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.6431245211396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.64025592051161</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.20387676025361</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.45330725109049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.59224828581114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.00301756671206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.70531103324657</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.49755358526941</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.10401415962281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.01391316186543</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.960225882478795</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.921692474755772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8637167414282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.808661664039517</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.792672339713392</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.778072387122497</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.764101895578765</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.747387955889417</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.743096936963935</c:v>
+                  <c:v>69.5672321523222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,11 +2483,11 @@
         </c:dLbls>
         <c:marker val="false"/>
         <c:smooth val="false"/>
-        <c:axId val="408850145"/>
-        <c:axId val="846850929"/>
+        <c:axId val="650535732"/>
+        <c:axId val="730226785"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408850145"/>
+        <c:axId val="650535732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846850929"/>
+        <c:crossAx val="730226785"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2864,7 +2536,7 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="846850929"/>
+        <c:axId val="730226785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2556,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000_ " sourceLinked="true"/>
+        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2914,7 +2586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408850145"/>
+        <c:crossAx val="650535732"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,9 +2626,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="false"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6528,10 +6202,10 @@
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>286385</xdr:rowOff>
+      <xdr:rowOff>285115</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6541,7 +6215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="48887380" y="692785"/>
-          <a:ext cx="4919980" cy="641350"/>
+          <a:ext cx="6931660" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6590,13 +6264,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>662305</xdr:colOff>
+      <xdr:colOff>661670</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>657860</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
@@ -6607,8 +6281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48848645" y="1539875"/>
-          <a:ext cx="4929505" cy="4729480"/>
+          <a:off x="48848010" y="1539875"/>
+          <a:ext cx="6940550" cy="4729480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6920,16 +6594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>465455</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6938,8 +6612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45316140" y="8221980"/>
-          <a:ext cx="4021455" cy="936625"/>
+          <a:off x="45373925" y="7966710"/>
+          <a:ext cx="4883785" cy="941070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7093,15 +6767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>476885</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7110,8 +6784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50101500" y="8235315"/>
-          <a:ext cx="4021455" cy="936625"/>
+          <a:off x="50938430" y="7968615"/>
+          <a:ext cx="4869180" cy="941070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7284,76 +6958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>454660</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="45338365" y="9337675"/>
-        <a:ext cx="3988435" cy="3038475"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="Chart 22"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="50097055" y="9632315"/>
-        <a:ext cx="3961130" cy="2649220"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>211455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>511810</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>633730</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7362,8 +6976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45362495" y="12687300"/>
-          <a:ext cx="4021455" cy="946150"/>
+          <a:off x="45362495" y="12765405"/>
+          <a:ext cx="4838065" cy="1012825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7528,46 +7142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name="Chart 24"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="45358050" y="14114780"/>
-        <a:ext cx="3961130" cy="2649220"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>490220</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7576,258 +7160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50114835" y="12727940"/>
-          <a:ext cx="4021455" cy="1334770"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Gráfico</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-            <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-            <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(melhor N, melhor Pc, melhor Pm</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-            <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-            <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(120   |   0,1   |   0,005)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>265430</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="50110390" y="14180820"/>
-        <a:ext cx="3961130" cy="2649220"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 27"/>
-        <xdr:cNvSpPr txBox="true"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="49841785" y="14423390"/>
-          <a:ext cx="4021455" cy="1325245"/>
+          <a:off x="51006375" y="12792075"/>
+          <a:ext cx="4843145" cy="1031875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7974,8 +7308,144 @@
           </a:r>
           <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
+              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(N=120   |   Pc=0,1   |   Pm=0,005)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>658495</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="51019710" y="13806170"/>
+        <a:ext cx="4758690" cy="2173605"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>691515</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="45364400" y="8918575"/>
+        <a:ext cx="4893945" cy="2944495"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1390015</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="50956845" y="8919210"/>
+        <a:ext cx="4830445" cy="2960370"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="45387895" y="13683615"/>
+        <a:ext cx="4806315" cy="2257425"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8236,8 +7706,8 @@
   <sheetPr/>
   <dimension ref="E3:AR81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="AE11" workbookViewId="0">
-      <selection activeCell="AL33" sqref="AL33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="AO66" sqref="AO66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8255,7 +7725,7 @@
     <col min="41" max="41" width="20.9333333333333" customWidth="true"/>
     <col min="43" max="43" width="10" customWidth="true"/>
     <col min="44" max="44" width="27.25" customWidth="true"/>
-    <col min="46" max="46" width="9.875"/>
+    <col min="46" max="46" width="9.11666666666667" customWidth="true"/>
     <col min="47" max="47" width="18.875" customWidth="true"/>
   </cols>
   <sheetData>

--- a/Resultados/OE 2020 -  Teste2_Implementação Numérica SGA.xlsx
+++ b/Resultados/OE 2020 -  Teste2_Implementação Numérica SGA.xlsx
@@ -82,7 +82,7 @@
     <t>Média</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Desv.Padr</t>
   </si>
   <si>
     <t>TESTE 1</t>
@@ -101,16 +101,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
-    <numFmt numFmtId="177" formatCode="0.000000000000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,19 +141,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="monospace"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,86 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -260,6 +167,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -267,9 +207,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -312,19 +298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2D69A"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -336,19 +322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7E3BB"/>
+        <fgColor rgb="FFEBF1DC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -366,13 +340,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0504D"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -384,7 +424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D69A"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E3BB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -396,108 +478,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8B7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDA9694"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -694,6 +680,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="true"/>
       </left>
@@ -703,7 +734,7 @@
       <top style="thin">
         <color auto="true"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="true"/>
       </bottom>
       <diagonal/>
@@ -781,6 +812,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -798,21 +859,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -894,6 +940,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -946,17 +1007,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="true"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="true"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="true"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA6BEDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,17 +1070,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,181 +1105,184 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA6BEDD"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="46" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="50" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1237,80 +1328,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,6 +1515,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400"/>
+              <a:t>f(x)melhor_médio em função do número de avaliações da função objetivo (NFOB)+(N=120   |   Pc=0,1   |   Pm=0,005)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
       <c:spPr>
@@ -1396,25 +1551,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
@@ -1435,7 +1571,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
@@ -1528,7 +1676,7 @@
             <c:numRef>
               <c:f>Plan1!$AR$7:$AR$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000_ </c:formatCode>
+                <c:formatCode>0.0000000_ </c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>154.205904321734</c:v>
@@ -1618,18 +1766,54 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
         <c:axId val="408850145"/>
         <c:axId val="846850929"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="408850145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of function evaluations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1651,7 +1835,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1667,11 +1851,10 @@
         </c:txPr>
         <c:crossAx val="846850929"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="true"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="false"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="false"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="846850929"/>
         <c:scaling>
@@ -1693,7 +1876,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000_ " sourceLinked="true"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average of best values of the objective function</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1709,7 +1929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1784,6 +2004,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>f(x)melhor_médio x N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
       <c:spPr>
@@ -1793,25 +2037,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
@@ -1822,6 +2047,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Fitness"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1832,7 +2068,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
@@ -1868,7 +2116,7 @@
             <c:numRef>
               <c:f>Plan1!$W$57:$AB$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:formatCode>0.0000000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>11.8179263453101</c:v>
@@ -1901,7 +2149,7 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
         <c:axId val="720480586"/>
         <c:axId val="11950325"/>
@@ -1913,6 +2161,43 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" altLang="en-US" sz="1400"/>
+                  <a:t>Population</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1934,7 +2219,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1976,7 +2261,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average of best values of the objective function</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1992,7 +2314,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2069,6 +2391,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>f(x)melhor_médio x Pc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
       <c:spPr>
@@ -2078,25 +2424,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
@@ -2117,7 +2444,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
@@ -2153,7 +2492,7 @@
             <c:numRef>
               <c:f>Plan1!$AC$57:$AH$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:formatCode>0.0000000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.59622674399063</c:v>
@@ -2186,7 +2525,7 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
         <c:axId val="931566490"/>
         <c:axId val="937883612"/>
@@ -2198,6 +2537,43 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" altLang="en-US" sz="1400"/>
+                  <a:t>Crossover Probability</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2219,7 +2595,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2261,7 +2637,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average of best values of the objective function</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2277,7 +2690,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2354,6 +2767,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>f(x)melhor_médio x Pm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
       <c:spPr>
@@ -2363,39 +2800,10 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.243582255597274"/>
-          <c:y val="0.18630201028518"/>
-          <c:w val="0.730830204422194"/>
-          <c:h val="0.709303412809724"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="false"/>
@@ -2412,7 +2820,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
@@ -2448,7 +2868,7 @@
             <c:numRef>
               <c:f>Plan1!$AI$57:$AN$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000000_ </c:formatCode>
+                <c:formatCode>0.0000000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.740595157489052</c:v>
@@ -2481,18 +2901,55 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
-        <c:axId val="650535732"/>
-        <c:axId val="730226785"/>
+        <c:axId val="110655752"/>
+        <c:axId val="824798943"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="650535732"/>
+        <c:axId val="110655752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" altLang="en-US" sz="1400"/>
+                  <a:t>Mutation Probability</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2514,7 +2971,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2528,7 +2985,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730226785"/>
+        <c:crossAx val="824798943"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2536,7 +2993,7 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730226785"/>
+        <c:axId val="824798943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +3013,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000000_ " sourceLinked="true"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average of best values of the objective function</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2572,7 +3066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2586,7 +3080,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650535732"/>
+        <c:crossAx val="110655752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4880,7 +5374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="1114425"/>
+          <a:off x="2381250" y="1104900"/>
           <a:ext cx="184785" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4918,7 +5412,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>462915</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5035,7 +5529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5530215" y="3413760"/>
+          <a:off x="5530215" y="3404235"/>
           <a:ext cx="432435" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -5078,7 +5572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="753745" y="4219575"/>
+          <a:off x="753745" y="4210050"/>
           <a:ext cx="4821555" cy="413385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5157,7 +5651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6003290" y="3389630"/>
+          <a:off x="6003290" y="3380105"/>
           <a:ext cx="3807460" cy="2296795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5321,7 +5815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="6225540"/>
+          <a:off x="4324350" y="6216015"/>
           <a:ext cx="361950" cy="794385"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -5364,7 +5858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="821690" y="6429375"/>
+          <a:off x="821690" y="6419850"/>
           <a:ext cx="3509010" cy="413385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5443,7 +5937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="6198235"/>
+          <a:off x="4876800" y="6188710"/>
           <a:ext cx="4193540" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5633,7 +6127,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="8477250"/>
+          <a:off x="1524000" y="8467725"/>
           <a:ext cx="6724650" cy="2343785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5671,7 +6165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="7753350"/>
+          <a:off x="1600200" y="7743825"/>
           <a:ext cx="3256280" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5737,7 +6231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1216660" y="7753350"/>
+          <a:off x="1216660" y="7743825"/>
           <a:ext cx="7124065" cy="3508375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5785,7 +6279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8630920" y="9921875"/>
+          <a:off x="8630920" y="9912350"/>
           <a:ext cx="5473065" cy="4151630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5808,15 +6302,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>231140</xdr:rowOff>
+      <xdr:colOff>364490</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>128270</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5825,8 +6319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9966325" y="2257425"/>
-          <a:ext cx="3877945" cy="6272530"/>
+          <a:off x="9965690" y="2258695"/>
+          <a:ext cx="3878580" cy="7417435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6176,7 +6670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1177925" y="11458575"/>
+          <a:off x="1177925" y="11449050"/>
           <a:ext cx="7167245" cy="2599690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6214,8 +6708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48887380" y="692785"/>
-          <a:ext cx="6931660" cy="640080"/>
+          <a:off x="36208970" y="683260"/>
+          <a:ext cx="6217920" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6252,7 +6746,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="2400" b="1"/>
             <a:t>RESULTADOS</a:t>
           </a:r>
           <a:endParaRPr lang="pt-PT" altLang="en-US" sz="2000" b="1"/>
@@ -6266,13 +6760,13 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>661670</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>196215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>668655</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>668020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6281,8 +6775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48848010" y="1539875"/>
-          <a:ext cx="6940550" cy="4729480"/>
+          <a:off x="36160075" y="1529715"/>
+          <a:ext cx="6235700" cy="5039360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6317,638 +6811,276 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1800" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" b="1"/>
             <a:t>Hardware Utilizado:</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Notebook:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t> Acer Aspire 5 A515 - 51G - 58VH</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Processador:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t> Intel® Core™ i5-7200U</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Memória RAM:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t> 8GB DDR4</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Disco: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t>SSD Kingston A1000 M2 240GB PCIe</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1800" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Tempos de Execução:</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="2000" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>1 Execução: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Tempo médio de 1,43 segundos</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Teste 1 --&gt; 50 execuções para cada [N variando + Pc=0,6 + Pm=0,01]:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1"/>
             <a:t>Tempo de execução: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>449.766 segundos (média de 1,499s por execução)</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Teste 2 --&gt; 50 execuções para cada [N=120 + Pc variando + Pm=0,01]:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Tempo de execução: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>446.689 segundos (média de 1,489s por execução)</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Teste 3 --&gt; 50 execuções para cada [N=120 + Pc=0,1 + Pm variando]:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Tempo de execução: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>479.746 segundos (média de 1,599s por execução)</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Teste 4 --&gt; 50 execuções para N=120 + Pc=0,1 + Pm=0,005:</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" b="1">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>Tempo de execução: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US">
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>75.738 segundos (média de 1,51s por execução)</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" b="1">
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Text Box 19"/>
-        <xdr:cNvSpPr txBox="true"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="45373925" y="7966710"/>
-          <a:ext cx="4883785" cy="941070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>f(x)melhor_médio x N</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>215265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 20"/>
-        <xdr:cNvSpPr txBox="true"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50938430" y="7968615"/>
-          <a:ext cx="4869180" cy="941070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>f(x)melhor_médio x </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Pc</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="2000" b="1" kern="100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-            <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-            <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200" b="1">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
@@ -6958,388 +7090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>211455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>633730</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Text Box 23"/>
-        <xdr:cNvSpPr txBox="true"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="45362495" y="12765405"/>
-          <a:ext cx="4838065" cy="1012825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>f(x)melhor_médio x </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Pm</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 25"/>
-        <xdr:cNvSpPr txBox="true"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51006375" y="12792075"/>
-          <a:ext cx="4843145" cy="1031875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>f(x)melhor_médio em função do número de avaliações da função objetivo (NFOB)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" altLang="en-US" sz="2000" kern="100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:cs typeface="Basic Sans" pitchFamily="1" charset="0"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(N=120   |   Pc=0,1   |   Pm=0,005)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>658495</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>676910</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7347,8 +7107,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="51019710" y="13806170"/>
-        <a:ext cx="4758690" cy="2173605"/>
+        <a:off x="37814885" y="11412220"/>
+        <a:ext cx="4589780" cy="3436620"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7360,16 +7120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>691515</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>223520</xdr:rowOff>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7377,8 +7137,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45364400" y="8918575"/>
-        <a:ext cx="4893945" cy="2944495"/>
+        <a:off x="32998410" y="7726045"/>
+        <a:ext cx="4571365" cy="3415030"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7390,16 +7150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1390015</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>667385</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>661035</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7407,8 +7167,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50956845" y="8919210"/>
-        <a:ext cx="4830445" cy="2960370"/>
+        <a:off x="37810440" y="7724775"/>
+        <a:ext cx="4578350" cy="3430270"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7421,24 +7181,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>627380</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvPr id="22" name="Chart 21"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45387895" y="13683615"/>
-        <a:ext cx="4806315" cy="2257425"/>
+        <a:off x="33014285" y="11385550"/>
+        <a:ext cx="4608830" cy="3474720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7704,32 +7464,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E3:AR81"/>
+  <dimension ref="E4:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="AO66" sqref="AO66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BD44" sqref="BD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="22" max="22" width="11.8583333333333" customWidth="true"/>
-    <col min="23" max="28" width="19.875" customWidth="true"/>
-    <col min="29" max="29" width="24.125" customWidth="true"/>
-    <col min="30" max="31" width="18.25" customWidth="true"/>
-    <col min="32" max="33" width="19.375" customWidth="true"/>
-    <col min="34" max="34" width="20.375" customWidth="true"/>
-    <col min="35" max="35" width="22.1833333333333" customWidth="true"/>
-    <col min="36" max="38" width="20.9416666666667" customWidth="true"/>
-    <col min="39" max="39" width="19.6916666666667" customWidth="true"/>
-    <col min="40" max="40" width="20.625" customWidth="true"/>
-    <col min="41" max="41" width="20.9333333333333" customWidth="true"/>
-    <col min="43" max="43" width="10" customWidth="true"/>
-    <col min="44" max="44" width="27.25" customWidth="true"/>
-    <col min="46" max="46" width="9.11666666666667" customWidth="true"/>
-    <col min="47" max="47" width="18.875" customWidth="true"/>
+    <col min="23" max="24" width="11.5" customWidth="true"/>
+    <col min="25" max="33" width="10.375" customWidth="true"/>
+    <col min="34" max="34" width="11.5" customWidth="true"/>
+    <col min="35" max="36" width="10.375" customWidth="true"/>
+    <col min="37" max="40" width="11.5" customWidth="true"/>
+    <col min="41" max="41" width="28.5" customWidth="true"/>
+    <col min="42" max="42" width="9.125" customWidth="true"/>
+    <col min="43" max="43" width="11.25" customWidth="true"/>
+    <col min="44" max="44" width="21.5" customWidth="true"/>
+    <col min="45" max="50" width="9.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15"/>
     <row r="4" spans="22:44">
       <c r="V4" s="2" t="s">
         <v>0</v>
@@ -7741,7 +7496,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="26"/>
       <c r="AC4" s="3" t="s">
         <v>2</v>
       </c>
@@ -7749,7 +7504,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="23"/>
+      <c r="AH4" s="26"/>
       <c r="AI4" s="3" t="s">
         <v>3</v>
       </c>
@@ -7757,14 +7512,14 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="40" t="s">
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AQ4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AR4" s="42"/>
+      <c r="AR4" s="43"/>
     </row>
     <row r="5" ht="24.75" customHeight="true" spans="22:44">
       <c r="V5" s="5"/>
@@ -7783,7 +7538,7 @@
       <c r="AA5" s="7">
         <v>120</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="27">
         <v>160</v>
       </c>
       <c r="AC5" s="6">
@@ -7801,7 +7556,7 @@
       <c r="AG5" s="7">
         <v>0.8</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AH5" s="27">
         <v>1</v>
       </c>
       <c r="AI5" s="6">
@@ -7819,12 +7574,12 @@
       <c r="AM5" s="7">
         <v>0.3</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="27">
         <v>0.5</v>
       </c>
-      <c r="AO5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
+      <c r="AO5" s="44"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="46"/>
     </row>
     <row r="6" ht="23.25" spans="22:44">
       <c r="V6" s="8"/>
@@ -7835,28 +7590,28 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="32" t="s">
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
       <c r="AH6" s="39"/>
-      <c r="AI6" s="32" t="s">
+      <c r="AI6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
       <c r="AN6" s="39"/>
-      <c r="AO6" s="46"/>
-      <c r="AQ6" s="47" t="s">
+      <c r="AO6" s="47"/>
+      <c r="AQ6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AR6" s="48" t="s">
+      <c r="AR6" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7879,10 +7634,10 @@
       <c r="AA7" s="13">
         <v>2.94406485275053</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="29">
         <v>3.75131504467967</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="13">
         <v>1.5637478539381</v>
       </c>
       <c r="AD7" s="13">
@@ -7897,7 +7652,7 @@
       <c r="AG7" s="13">
         <v>4.71703301432826</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="29">
         <v>6.27188471307032</v>
       </c>
       <c r="AI7" s="12">
@@ -7915,16 +7670,16 @@
       <c r="AM7" s="13">
         <v>75.136789497369</v>
       </c>
-      <c r="AN7" s="26">
+      <c r="AN7" s="29">
         <v>79.7325553965919</v>
       </c>
-      <c r="AO7" s="49">
+      <c r="AO7" s="50">
         <v>0.746341215500087</v>
       </c>
-      <c r="AQ7" s="50">
+      <c r="AQ7" s="51">
         <v>250</v>
       </c>
-      <c r="AR7" s="51">
+      <c r="AR7" s="52">
         <v>154.205904321734</v>
       </c>
     </row>
@@ -7948,52 +7703,52 @@
       <c r="AA8" s="16">
         <v>3.24541608815374</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="30">
         <v>3.81522216601778</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="38">
         <v>1.42422038907186</v>
       </c>
-      <c r="AD8" s="36">
+      <c r="AD8" s="38">
         <v>1.77217206679324</v>
       </c>
-      <c r="AE8" s="36">
+      <c r="AE8" s="38">
         <v>2.68538877080856</v>
       </c>
-      <c r="AF8" s="36">
+      <c r="AF8" s="38">
         <v>3.60613778397645</v>
       </c>
-      <c r="AG8" s="36">
+      <c r="AG8" s="38">
         <v>4.53058520167915</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="30">
         <v>8.60284348189411</v>
       </c>
       <c r="AI8" s="15">
         <v>0.615451242746787</v>
       </c>
-      <c r="AJ8" s="36">
+      <c r="AJ8" s="38">
         <v>1.67796578680203</v>
       </c>
-      <c r="AK8" s="36">
+      <c r="AK8" s="38">
         <v>27.2314484246375</v>
       </c>
-      <c r="AL8" s="36">
+      <c r="AL8" s="38">
         <v>54.9645778013581</v>
       </c>
-      <c r="AM8" s="36">
+      <c r="AM8" s="38">
         <v>39.1542953232706</v>
       </c>
-      <c r="AN8" s="27">
+      <c r="AN8" s="30">
         <v>75.2950274665207</v>
       </c>
-      <c r="AO8" s="52">
+      <c r="AO8" s="53">
         <v>0.784633673883893</v>
       </c>
-      <c r="AQ8" s="53">
+      <c r="AQ8" s="54">
         <v>500</v>
       </c>
-      <c r="AR8" s="54">
+      <c r="AR8" s="55">
         <v>116.031337374949</v>
       </c>
     </row>
@@ -8017,52 +7772,52 @@
       <c r="AA9" s="16">
         <v>3.66024047864208</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AB9" s="30">
         <v>3.80250863321023</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="38">
         <v>1.73171075571656</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="38">
         <v>2.02430548126932</v>
       </c>
-      <c r="AE9" s="36">
+      <c r="AE9" s="38">
         <v>2.45284679579367</v>
       </c>
-      <c r="AF9" s="36">
+      <c r="AF9" s="38">
         <v>4.2890915134165</v>
       </c>
-      <c r="AG9" s="36">
+      <c r="AG9" s="38">
         <v>5.98796025496054</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="30">
         <v>11.9841356747767</v>
       </c>
       <c r="AI9" s="15">
         <v>0.797497398624632</v>
       </c>
-      <c r="AJ9" s="36">
+      <c r="AJ9" s="38">
         <v>1.90792760632872</v>
       </c>
-      <c r="AK9" s="36">
+      <c r="AK9" s="38">
         <v>18.5483369970266</v>
       </c>
-      <c r="AL9" s="36">
+      <c r="AL9" s="38">
         <v>35.3243159520848</v>
       </c>
-      <c r="AM9" s="36">
+      <c r="AM9" s="38">
         <v>57.9530302258946</v>
       </c>
-      <c r="AN9" s="27">
+      <c r="AN9" s="30">
         <v>46.4507242393053</v>
       </c>
-      <c r="AO9" s="52">
+      <c r="AO9" s="53">
         <v>0.835954549991339</v>
       </c>
-      <c r="AQ9" s="53">
+      <c r="AQ9" s="54">
         <v>750</v>
       </c>
-      <c r="AR9" s="54">
+      <c r="AR9" s="55">
         <v>83.0755701222785</v>
       </c>
     </row>
@@ -8086,52 +7841,52 @@
       <c r="AA10" s="16">
         <v>3.42229437318396</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AB10" s="30">
         <v>3.40005110108583</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC10" s="38">
         <v>1.67612802005794</v>
       </c>
-      <c r="AD10" s="36">
+      <c r="AD10" s="38">
         <v>1.60941629581947</v>
       </c>
-      <c r="AE10" s="36">
+      <c r="AE10" s="38">
         <v>2.29017808232804</v>
       </c>
-      <c r="AF10" s="36">
+      <c r="AF10" s="38">
         <v>3.41807376967851</v>
       </c>
-      <c r="AG10" s="36">
+      <c r="AG10" s="38">
         <v>5.12721661399984</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AH10" s="30">
         <v>10.145930347915</v>
       </c>
       <c r="AI10" s="15">
         <v>0.794849607847246</v>
       </c>
-      <c r="AJ10" s="36">
+      <c r="AJ10" s="38">
         <v>1.35347391063916</v>
       </c>
-      <c r="AK10" s="36">
+      <c r="AK10" s="38">
         <v>33.2073135074566</v>
       </c>
-      <c r="AL10" s="36">
+      <c r="AL10" s="38">
         <v>56.7968140928136</v>
       </c>
-      <c r="AM10" s="36">
+      <c r="AM10" s="38">
         <v>69.9294246285309</v>
       </c>
-      <c r="AN10" s="27">
+      <c r="AN10" s="30">
         <v>52.2714890582633</v>
       </c>
-      <c r="AO10" s="52">
+      <c r="AO10" s="53">
         <v>0.569366814421488</v>
       </c>
-      <c r="AQ10" s="53">
+      <c r="AQ10" s="54">
         <v>1000</v>
       </c>
-      <c r="AR10" s="54">
+      <c r="AR10" s="55">
         <v>62.6561686432887</v>
       </c>
     </row>
@@ -8155,52 +7910,52 @@
       <c r="AA11" s="16">
         <v>2.65493851301122</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AB11" s="30">
         <v>3.67112922083315</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11" s="38">
         <v>1.32844316255807</v>
       </c>
-      <c r="AD11" s="36">
+      <c r="AD11" s="38">
         <v>1.71637654062318</v>
       </c>
-      <c r="AE11" s="36">
+      <c r="AE11" s="38">
         <v>2.23458629922893</v>
       </c>
-      <c r="AF11" s="36">
+      <c r="AF11" s="38">
         <v>3.52130926482553</v>
       </c>
-      <c r="AG11" s="36">
+      <c r="AG11" s="38">
         <v>7.09535995065723</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="30">
         <v>10.2436418678544</v>
       </c>
       <c r="AI11" s="15">
         <v>0.77292970595053</v>
       </c>
-      <c r="AJ11" s="36">
+      <c r="AJ11" s="38">
         <v>1.57980304869012</v>
       </c>
-      <c r="AK11" s="36">
+      <c r="AK11" s="38">
         <v>22.7856252003101</v>
       </c>
-      <c r="AL11" s="36">
+      <c r="AL11" s="38">
         <v>54.3953008679748</v>
       </c>
-      <c r="AM11" s="36">
+      <c r="AM11" s="38">
         <v>77.9094258594183</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AN11" s="30">
         <v>75.4315173435937</v>
       </c>
-      <c r="AO11" s="52">
+      <c r="AO11" s="53">
         <v>0.628063558448716</v>
       </c>
-      <c r="AQ11" s="53">
+      <c r="AQ11" s="54">
         <v>1500</v>
       </c>
-      <c r="AR11" s="54">
+      <c r="AR11" s="55">
         <v>40.7530701087832</v>
       </c>
     </row>
@@ -8224,52 +7979,52 @@
       <c r="AA12" s="16">
         <v>4.62276861845238</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AB12" s="30">
         <v>2.17895772024542</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="38">
         <v>1.72701973093087</v>
       </c>
-      <c r="AD12" s="36">
+      <c r="AD12" s="38">
         <v>2.11643393480991</v>
       </c>
-      <c r="AE12" s="36">
+      <c r="AE12" s="38">
         <v>2.25196686906834</v>
       </c>
-      <c r="AF12" s="36">
+      <c r="AF12" s="38">
         <v>4.22237764203922</v>
       </c>
-      <c r="AG12" s="36">
+      <c r="AG12" s="38">
         <v>4.84403682536845</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AH12" s="30">
         <v>9.14724161668337</v>
       </c>
       <c r="AI12" s="15">
         <v>0.819472736886693</v>
       </c>
-      <c r="AJ12" s="36">
+      <c r="AJ12" s="38">
         <v>1.816473119545</v>
       </c>
-      <c r="AK12" s="36">
+      <c r="AK12" s="38">
         <v>33.6840970684731</v>
       </c>
-      <c r="AL12" s="36">
+      <c r="AL12" s="38">
         <v>40.2566540353858</v>
       </c>
-      <c r="AM12" s="36">
+      <c r="AM12" s="38">
         <v>64.0030290414965</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="AN12" s="30">
         <v>75.8254069365438</v>
       </c>
-      <c r="AO12" s="52">
+      <c r="AO12" s="53">
         <v>0.809049617570747</v>
       </c>
-      <c r="AQ12" s="53">
+      <c r="AQ12" s="54">
         <v>2000</v>
       </c>
-      <c r="AR12" s="54">
+      <c r="AR12" s="55">
         <v>27.2614582374191</v>
       </c>
     </row>
@@ -8293,53 +8048,53 @@
       <c r="AA13" s="16">
         <v>3.61346851484241</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AB13" s="30">
         <v>3.23096946252075</v>
       </c>
-      <c r="AC13" s="35">
+      <c r="AC13" s="38">
         <v>1.50064132659827</v>
       </c>
-      <c r="AD13" s="36">
+      <c r="AD13" s="38">
         <v>2.00911702835266</v>
       </c>
-      <c r="AE13" s="36">
+      <c r="AE13" s="38">
         <v>1.56268351979254</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="38">
         <v>3.76050275459367</v>
       </c>
-      <c r="AG13" s="36">
+      <c r="AG13" s="38">
         <v>5.87080441142292</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AH13" s="30">
         <v>7.44834671912913</v>
       </c>
       <c r="AI13" s="15">
         <v>0.784537581730272</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="38">
         <v>1.82197810097593</v>
       </c>
-      <c r="AK13" s="36">
+      <c r="AK13" s="38">
         <v>34.2543685972176</v>
       </c>
-      <c r="AL13" s="36">
+      <c r="AL13" s="38">
         <v>64.7777228126152</v>
       </c>
-      <c r="AM13" s="36">
+      <c r="AM13" s="38">
         <v>83.6174536041839</v>
       </c>
-      <c r="AN13" s="27">
+      <c r="AN13" s="30">
         <v>63.1829190143493</v>
       </c>
-      <c r="AO13" s="52">
+      <c r="AO13" s="53">
         <v>0.858062110645698</v>
       </c>
-      <c r="AQ13" s="53">
+      <c r="AQ13" s="54">
         <f t="shared" ref="AQ13:AQ20" si="1">AQ12+1000</f>
         <v>3000</v>
       </c>
-      <c r="AR13" s="54">
+      <c r="AR13" s="55">
         <v>14.6431245211396</v>
       </c>
     </row>
@@ -8364,53 +8119,53 @@
       <c r="AA14" s="16">
         <v>4.00844186777199</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AB14" s="30">
         <v>3.48483613851825</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14" s="38">
         <v>1.56676523154003</v>
       </c>
-      <c r="AD14" s="36">
+      <c r="AD14" s="38">
         <v>1.91415329142982</v>
       </c>
-      <c r="AE14" s="36">
+      <c r="AE14" s="38">
         <v>3.47218636005236</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="38">
         <v>4.62822736394046</v>
       </c>
-      <c r="AG14" s="36">
+      <c r="AG14" s="38">
         <v>6.76903011314437</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AH14" s="30">
         <v>8.84921621767942</v>
       </c>
       <c r="AI14" s="15">
         <v>0.640202496927799</v>
       </c>
-      <c r="AJ14" s="36">
+      <c r="AJ14" s="38">
         <v>1.50630322444189</v>
       </c>
-      <c r="AK14" s="36">
+      <c r="AK14" s="38">
         <v>20.9196225303591</v>
       </c>
-      <c r="AL14" s="36">
+      <c r="AL14" s="38">
         <v>57.2493196688516</v>
       </c>
-      <c r="AM14" s="36">
+      <c r="AM14" s="38">
         <v>81.1175066226247</v>
       </c>
-      <c r="AN14" s="27">
+      <c r="AN14" s="30">
         <v>72.1202076044346</v>
       </c>
-      <c r="AO14" s="52">
+      <c r="AO14" s="53">
         <v>0.886225705929934</v>
       </c>
-      <c r="AQ14" s="53">
+      <c r="AQ14" s="54">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="AR14" s="54">
+      <c r="AR14" s="55">
         <v>8.64025592051161</v>
       </c>
     </row>
@@ -8434,53 +8189,53 @@
       <c r="AA15" s="16">
         <v>3.24737630197926</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AB15" s="30">
         <v>3.55205736001101</v>
       </c>
-      <c r="AC15" s="35">
+      <c r="AC15" s="38">
         <v>1.45028998375865</v>
       </c>
-      <c r="AD15" s="36">
+      <c r="AD15" s="38">
         <v>1.99960247648307</v>
       </c>
-      <c r="AE15" s="36">
+      <c r="AE15" s="38">
         <v>2.73805241158951</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AF15" s="38">
         <v>3.38964704686133</v>
       </c>
-      <c r="AG15" s="36">
+      <c r="AG15" s="38">
         <v>4.42764295200617</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AH15" s="30">
         <v>10.3124559499184</v>
       </c>
       <c r="AI15" s="15">
         <v>0.558497351474102</v>
       </c>
-      <c r="AJ15" s="36">
+      <c r="AJ15" s="38">
         <v>1.640497017867</v>
       </c>
-      <c r="AK15" s="36">
+      <c r="AK15" s="38">
         <v>37.4446049417082</v>
       </c>
-      <c r="AL15" s="36">
+      <c r="AL15" s="38">
         <v>65.4838514301607</v>
       </c>
-      <c r="AM15" s="36">
+      <c r="AM15" s="38">
         <v>58.1964804235858</v>
       </c>
-      <c r="AN15" s="27">
+      <c r="AN15" s="30">
         <v>72.223862748566</v>
       </c>
-      <c r="AO15" s="52">
+      <c r="AO15" s="53">
         <v>0.773864513396473</v>
       </c>
-      <c r="AQ15" s="53">
+      <c r="AQ15" s="54">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="AR15" s="54">
+      <c r="AR15" s="55">
         <v>5.20387676025361</v>
       </c>
     </row>
@@ -8504,53 +8259,53 @@
       <c r="AA16" s="16">
         <v>2.95244088172767</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AB16" s="30">
         <v>4.30898001575343</v>
       </c>
-      <c r="AC16" s="35">
+      <c r="AC16" s="38">
         <v>1.62018080940468</v>
       </c>
-      <c r="AD16" s="36">
+      <c r="AD16" s="38">
         <v>1.94689818135211</v>
       </c>
-      <c r="AE16" s="36">
+      <c r="AE16" s="38">
         <v>2.72513654593476</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="38">
         <v>3.75315991832384</v>
       </c>
-      <c r="AG16" s="36">
+      <c r="AG16" s="38">
         <v>6.37507478267421</v>
       </c>
-      <c r="AH16" s="27">
+      <c r="AH16" s="30">
         <v>10.91230309783</v>
       </c>
       <c r="AI16" s="15">
         <v>0.782347199597428</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="38">
         <v>1.3829984675306</v>
       </c>
-      <c r="AK16" s="36">
+      <c r="AK16" s="38">
         <v>35.5025877115472</v>
       </c>
-      <c r="AL16" s="36">
+      <c r="AL16" s="38">
         <v>55.9432883463154</v>
       </c>
-      <c r="AM16" s="36">
+      <c r="AM16" s="38">
         <v>64.1887594190231</v>
       </c>
-      <c r="AN16" s="27">
+      <c r="AN16" s="30">
         <v>88.2664051131236</v>
       </c>
-      <c r="AO16" s="52">
+      <c r="AO16" s="53">
         <v>0.713529711026885</v>
       </c>
-      <c r="AQ16" s="53">
+      <c r="AQ16" s="54">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="AR16" s="54">
+      <c r="AR16" s="55">
         <v>3.45330725109049</v>
       </c>
     </row>
@@ -8574,53 +8329,53 @@
       <c r="AA17" s="16">
         <v>3.2158146071048</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AB17" s="30">
         <v>2.82784922511435</v>
       </c>
-      <c r="AC17" s="35">
+      <c r="AC17" s="38">
         <v>1.6176900959505</v>
       </c>
-      <c r="AD17" s="36">
+      <c r="AD17" s="38">
         <v>1.8376773945865</v>
       </c>
-      <c r="AE17" s="36">
+      <c r="AE17" s="38">
         <v>2.7204707763697</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AF17" s="38">
         <v>3.02251570743526</v>
       </c>
-      <c r="AG17" s="36">
+      <c r="AG17" s="38">
         <v>5.88076232474701</v>
       </c>
-      <c r="AH17" s="27">
+      <c r="AH17" s="30">
         <v>12.4340113677722</v>
       </c>
       <c r="AI17" s="15">
         <v>0.736230222867755</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AJ17" s="38">
         <v>1.78656813218255</v>
       </c>
-      <c r="AK17" s="36">
+      <c r="AK17" s="38">
         <v>27.9259109674773</v>
       </c>
-      <c r="AL17" s="36">
+      <c r="AL17" s="38">
         <v>32.1932337665373</v>
       </c>
-      <c r="AM17" s="36">
+      <c r="AM17" s="38">
         <v>33.9324648540278</v>
       </c>
-      <c r="AN17" s="27">
+      <c r="AN17" s="30">
         <v>81.0115655028201</v>
       </c>
-      <c r="AO17" s="52">
+      <c r="AO17" s="53">
         <v>0.888332207125758</v>
       </c>
-      <c r="AQ17" s="53">
+      <c r="AQ17" s="54">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="AR17" s="54">
+      <c r="AR17" s="55">
         <v>2.59224828581114</v>
       </c>
     </row>
@@ -8644,53 +8399,53 @@
       <c r="AA18" s="16">
         <v>3.81153168369392</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AB18" s="30">
         <v>4.33583082664228</v>
       </c>
-      <c r="AC18" s="35">
+      <c r="AC18" s="38">
         <v>1.47813969693992</v>
       </c>
-      <c r="AD18" s="36">
+      <c r="AD18" s="38">
         <v>1.74499853489947</v>
       </c>
-      <c r="AE18" s="36">
+      <c r="AE18" s="38">
         <v>2.62430271694972</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="38">
         <v>3.34967699609894</v>
       </c>
-      <c r="AG18" s="36">
+      <c r="AG18" s="38">
         <v>3.57436596357252</v>
       </c>
-      <c r="AH18" s="27">
+      <c r="AH18" s="30">
         <v>12.1708914669157</v>
       </c>
       <c r="AI18" s="15">
         <v>0.716204216917067</v>
       </c>
-      <c r="AJ18" s="36">
+      <c r="AJ18" s="38">
         <v>1.45186214049078</v>
       </c>
-      <c r="AK18" s="36">
+      <c r="AK18" s="38">
         <v>30.943134758043</v>
       </c>
-      <c r="AL18" s="36">
+      <c r="AL18" s="38">
         <v>49.6041628933042</v>
       </c>
-      <c r="AM18" s="36">
+      <c r="AM18" s="38">
         <v>81.282147213576</v>
       </c>
-      <c r="AN18" s="27">
+      <c r="AN18" s="30">
         <v>57.7286082400155</v>
       </c>
-      <c r="AO18" s="52">
+      <c r="AO18" s="53">
         <v>0.533903792893991</v>
       </c>
-      <c r="AQ18" s="53">
+      <c r="AQ18" s="54">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="AR18" s="54">
+      <c r="AR18" s="55">
         <v>2.00301756671206</v>
       </c>
     </row>
@@ -8714,53 +8469,53 @@
       <c r="AA19" s="16">
         <v>3.51382598026702</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AB19" s="30">
         <v>3.77517610674053</v>
       </c>
-      <c r="AC19" s="35">
+      <c r="AC19" s="38">
         <v>1.61317752123563</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="38">
         <v>1.51051359487176</v>
       </c>
-      <c r="AE19" s="36">
+      <c r="AE19" s="38">
         <v>2.56649096678823</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="38">
         <v>4.29186598453134</v>
       </c>
-      <c r="AG19" s="36">
+      <c r="AG19" s="38">
         <v>4.18519701630701</v>
       </c>
-      <c r="AH19" s="27">
+      <c r="AH19" s="30">
         <v>8.46725236950324</v>
       </c>
       <c r="AI19" s="15">
         <v>0.762639759889894</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="38">
         <v>1.64210438634458</v>
       </c>
-      <c r="AK19" s="36">
+      <c r="AK19" s="38">
         <v>33.3827631799501</v>
       </c>
-      <c r="AL19" s="36">
+      <c r="AL19" s="38">
         <v>52.3782736418088</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="38">
         <v>72.1426681549026</v>
       </c>
-      <c r="AN19" s="27">
+      <c r="AN19" s="30">
         <v>34.311492884707</v>
       </c>
-      <c r="AO19" s="52">
+      <c r="AO19" s="53">
         <v>0.68246105842879</v>
       </c>
-      <c r="AQ19" s="53">
+      <c r="AQ19" s="54">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="AR19" s="54">
+      <c r="AR19" s="55">
         <v>1.70531103324657</v>
       </c>
     </row>
@@ -8784,53 +8539,53 @@
       <c r="AA20" s="16">
         <v>3.7743879647996</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AB20" s="30">
         <v>3.98912510520581</v>
       </c>
-      <c r="AC20" s="35">
+      <c r="AC20" s="38">
         <v>1.72795952482595</v>
       </c>
-      <c r="AD20" s="36">
+      <c r="AD20" s="38">
         <v>1.5169620530679</v>
       </c>
-      <c r="AE20" s="36">
+      <c r="AE20" s="38">
         <v>3.23978986979832</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="38">
         <v>3.27021886911794</v>
       </c>
-      <c r="AG20" s="36">
+      <c r="AG20" s="38">
         <v>5.56034796308562</v>
       </c>
-      <c r="AH20" s="27">
+      <c r="AH20" s="30">
         <v>6.85462400021122</v>
       </c>
       <c r="AI20" s="15">
         <v>0.688004183358078</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="38">
         <v>1.41676244690315</v>
       </c>
-      <c r="AK20" s="36">
+      <c r="AK20" s="38">
         <v>24.6928316554895</v>
       </c>
-      <c r="AL20" s="36">
+      <c r="AL20" s="38">
         <v>52.6479149520409</v>
       </c>
-      <c r="AM20" s="36">
+      <c r="AM20" s="38">
         <v>71.4505387481035</v>
       </c>
-      <c r="AN20" s="27">
+      <c r="AN20" s="30">
         <v>80.5134208644608</v>
       </c>
-      <c r="AO20" s="52">
+      <c r="AO20" s="53">
         <v>0.751943423527262</v>
       </c>
-      <c r="AQ20" s="53">
+      <c r="AQ20" s="54">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="AR20" s="54">
+      <c r="AR20" s="55">
         <v>1.49755358526941</v>
       </c>
     </row>
@@ -8854,52 +8609,52 @@
       <c r="AA21" s="16">
         <v>3.47865097344612</v>
       </c>
-      <c r="AB21" s="27">
+      <c r="AB21" s="30">
         <v>2.9420199578624</v>
       </c>
-      <c r="AC21" s="35">
+      <c r="AC21" s="38">
         <v>1.39610535369571</v>
       </c>
-      <c r="AD21" s="36">
+      <c r="AD21" s="38">
         <v>1.6500449092462</v>
       </c>
-      <c r="AE21" s="36">
+      <c r="AE21" s="38">
         <v>2.31870898117143</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AF21" s="38">
         <v>3.78963291280035</v>
       </c>
-      <c r="AG21" s="36">
+      <c r="AG21" s="38">
         <v>5.22059998640273</v>
       </c>
-      <c r="AH21" s="27">
+      <c r="AH21" s="30">
         <v>7.46816816157175</v>
       </c>
       <c r="AI21" s="15">
         <v>0.62637792684964</v>
       </c>
-      <c r="AJ21" s="36">
+      <c r="AJ21" s="38">
         <v>1.46024109719691</v>
       </c>
-      <c r="AK21" s="36">
+      <c r="AK21" s="38">
         <v>22.4155213227872</v>
       </c>
-      <c r="AL21" s="36">
+      <c r="AL21" s="38">
         <v>54.2424093739059</v>
       </c>
-      <c r="AM21" s="36">
+      <c r="AM21" s="38">
         <v>67.4724444264044</v>
       </c>
-      <c r="AN21" s="27">
+      <c r="AN21" s="30">
         <v>57.567815639465</v>
       </c>
-      <c r="AO21" s="52">
+      <c r="AO21" s="53">
         <v>0.64812747516948</v>
       </c>
-      <c r="AQ21" s="53">
+      <c r="AQ21" s="54">
         <v>15000</v>
       </c>
-      <c r="AR21" s="54">
+      <c r="AR21" s="55">
         <v>1.10401415962281</v>
       </c>
     </row>
@@ -8923,52 +8678,52 @@
       <c r="AA22" s="16">
         <v>3.60042481827378</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AB22" s="30">
         <v>4.8305784744258</v>
       </c>
-      <c r="AC22" s="35">
+      <c r="AC22" s="38">
         <v>1.69328057558803</v>
       </c>
-      <c r="AD22" s="36">
+      <c r="AD22" s="38">
         <v>1.95782470950422</v>
       </c>
-      <c r="AE22" s="36">
+      <c r="AE22" s="38">
         <v>1.73734588839616</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AF22" s="38">
         <v>3.89693307037219</v>
       </c>
-      <c r="AG22" s="36">
+      <c r="AG22" s="38">
         <v>7.78479012567409</v>
       </c>
-      <c r="AH22" s="27">
+      <c r="AH22" s="30">
         <v>10.9234047838008</v>
       </c>
       <c r="AI22" s="15">
         <v>0.593536009398373</v>
       </c>
-      <c r="AJ22" s="36">
+      <c r="AJ22" s="38">
         <v>1.49466373638764</v>
       </c>
-      <c r="AK22" s="36">
+      <c r="AK22" s="38">
         <v>21.225305444068</v>
       </c>
-      <c r="AL22" s="36">
+      <c r="AL22" s="38">
         <v>52.8470657500302</v>
       </c>
-      <c r="AM22" s="36">
+      <c r="AM22" s="38">
         <v>64.1854047037348</v>
       </c>
-      <c r="AN22" s="27">
+      <c r="AN22" s="30">
         <v>71.3737119505534</v>
       </c>
-      <c r="AO22" s="52">
+      <c r="AO22" s="53">
         <v>0.703770323946946</v>
       </c>
-      <c r="AQ22" s="53">
+      <c r="AQ22" s="54">
         <v>20000</v>
       </c>
-      <c r="AR22" s="54">
+      <c r="AR22" s="55">
         <v>1.01391316186543</v>
       </c>
     </row>
@@ -8992,53 +8747,53 @@
       <c r="AA23" s="16">
         <v>3.16265824014639</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AB23" s="30">
         <v>2.57534897115202</v>
       </c>
-      <c r="AC23" s="35">
+      <c r="AC23" s="38">
         <v>1.72244819498296</v>
       </c>
-      <c r="AD23" s="36">
+      <c r="AD23" s="38">
         <v>1.73012123256279</v>
       </c>
-      <c r="AE23" s="36">
+      <c r="AE23" s="38">
         <v>2.89661479004667</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AF23" s="38">
         <v>3.6196893796814</v>
       </c>
-      <c r="AG23" s="36">
+      <c r="AG23" s="38">
         <v>6.39646638887042</v>
       </c>
-      <c r="AH23" s="27">
+      <c r="AH23" s="30">
         <v>9.41873124652104</v>
       </c>
       <c r="AI23" s="15">
         <v>0.843698415852658</v>
       </c>
-      <c r="AJ23" s="36">
+      <c r="AJ23" s="38">
         <v>1.74629530151583</v>
       </c>
-      <c r="AK23" s="36">
+      <c r="AK23" s="38">
         <v>37.495443412055</v>
       </c>
-      <c r="AL23" s="36">
+      <c r="AL23" s="38">
         <v>47.8869163355585</v>
       </c>
-      <c r="AM23" s="36">
+      <c r="AM23" s="38">
         <v>48.1702081033434</v>
       </c>
-      <c r="AN23" s="27">
+      <c r="AN23" s="30">
         <v>70.2692691016296</v>
       </c>
-      <c r="AO23" s="52">
+      <c r="AO23" s="53">
         <v>0.753892424068291</v>
       </c>
-      <c r="AQ23" s="53">
+      <c r="AQ23" s="54">
         <f>AQ22+5000</f>
         <v>25000</v>
       </c>
-      <c r="AR23" s="54">
+      <c r="AR23" s="55">
         <v>0.960225882478795</v>
       </c>
     </row>
@@ -9062,52 +8817,52 @@
       <c r="AA24" s="16">
         <v>3.72214378408592</v>
       </c>
-      <c r="AB24" s="27">
+      <c r="AB24" s="30">
         <v>3.01081974975365</v>
       </c>
-      <c r="AC24" s="35">
+      <c r="AC24" s="38">
         <v>1.70644814618086</v>
       </c>
-      <c r="AD24" s="36">
+      <c r="AD24" s="38">
         <v>1.54046804559971</v>
       </c>
-      <c r="AE24" s="36">
+      <c r="AE24" s="38">
         <v>2.1522061767578</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="38">
         <v>3.92625628612491</v>
       </c>
-      <c r="AG24" s="36">
+      <c r="AG24" s="38">
         <v>5.16351774858854</v>
       </c>
-      <c r="AH24" s="27">
+      <c r="AH24" s="30">
         <v>11.7357935589709</v>
       </c>
       <c r="AI24" s="15">
         <v>0.775114079670886</v>
       </c>
-      <c r="AJ24" s="36">
+      <c r="AJ24" s="38">
         <v>1.66675444694329</v>
       </c>
-      <c r="AK24" s="36">
+      <c r="AK24" s="38">
         <v>29.9694492291865</v>
       </c>
-      <c r="AL24" s="36">
+      <c r="AL24" s="38">
         <v>61.2987353219905</v>
       </c>
-      <c r="AM24" s="36">
+      <c r="AM24" s="38">
         <v>70.3745218359708</v>
       </c>
-      <c r="AN24" s="27">
+      <c r="AN24" s="30">
         <v>62.6048501953418</v>
       </c>
-      <c r="AO24" s="52">
+      <c r="AO24" s="53">
         <v>0.819633178518883</v>
       </c>
-      <c r="AQ24" s="53">
+      <c r="AQ24" s="54">
         <v>30000</v>
       </c>
-      <c r="AR24" s="54">
+      <c r="AR24" s="55">
         <v>0.921692474755772</v>
       </c>
     </row>
@@ -9131,53 +8886,53 @@
       <c r="AA25" s="16">
         <v>3.60656464180705</v>
       </c>
-      <c r="AB25" s="27">
+      <c r="AB25" s="30">
         <v>3.22947140124225</v>
       </c>
-      <c r="AC25" s="35">
+      <c r="AC25" s="38">
         <v>1.50416016809215</v>
       </c>
-      <c r="AD25" s="36">
+      <c r="AD25" s="38">
         <v>2.16129008495612</v>
       </c>
-      <c r="AE25" s="36">
+      <c r="AE25" s="38">
         <v>2.37444662761914</v>
       </c>
-      <c r="AF25" s="36">
+      <c r="AF25" s="38">
         <v>5.46893075650909</v>
       </c>
-      <c r="AG25" s="36">
+      <c r="AG25" s="38">
         <v>2.90017406415342</v>
       </c>
-      <c r="AH25" s="27">
+      <c r="AH25" s="30">
         <v>11.7654046979502</v>
       </c>
       <c r="AI25" s="15">
         <v>0.740879178272761</v>
       </c>
-      <c r="AJ25" s="36">
+      <c r="AJ25" s="38">
         <v>1.5833991488291</v>
       </c>
-      <c r="AK25" s="36">
+      <c r="AK25" s="38">
         <v>31.6751732123133</v>
       </c>
-      <c r="AL25" s="36">
+      <c r="AL25" s="38">
         <v>50.2853228096565</v>
       </c>
-      <c r="AM25" s="36">
+      <c r="AM25" s="38">
         <v>69.3294584019194</v>
       </c>
-      <c r="AN25" s="27">
+      <c r="AN25" s="30">
         <v>69.5521119969874</v>
       </c>
-      <c r="AO25" s="52">
+      <c r="AO25" s="53">
         <v>0.856491790622859</v>
       </c>
-      <c r="AQ25" s="53">
+      <c r="AQ25" s="54">
         <f t="shared" ref="AQ25:AQ31" si="2">AQ24+10000</f>
         <v>40000</v>
       </c>
-      <c r="AR25" s="54">
+      <c r="AR25" s="55">
         <v>0.8637167414282</v>
       </c>
     </row>
@@ -9201,53 +8956,53 @@
       <c r="AA26" s="16">
         <v>3.30574571937755</v>
       </c>
-      <c r="AB26" s="27">
+      <c r="AB26" s="30">
         <v>3.70478579966019</v>
       </c>
-      <c r="AC26" s="35">
+      <c r="AC26" s="38">
         <v>1.5227126684402</v>
       </c>
-      <c r="AD26" s="36">
+      <c r="AD26" s="38">
         <v>1.60753684005808</v>
       </c>
-      <c r="AE26" s="36">
+      <c r="AE26" s="38">
         <v>3.24234936571634</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AF26" s="38">
         <v>3.25369035051987</v>
       </c>
-      <c r="AG26" s="36">
+      <c r="AG26" s="38">
         <v>6.38060764726612</v>
       </c>
-      <c r="AH26" s="27">
+      <c r="AH26" s="30">
         <v>9.42864642080503</v>
       </c>
       <c r="AI26" s="15">
         <v>0.881428639739365</v>
       </c>
-      <c r="AJ26" s="36">
+      <c r="AJ26" s="38">
         <v>1.72991074953268</v>
       </c>
-      <c r="AK26" s="36">
+      <c r="AK26" s="38">
         <v>39.2748578046205</v>
       </c>
-      <c r="AL26" s="36">
+      <c r="AL26" s="38">
         <v>58.9792764146852</v>
       </c>
-      <c r="AM26" s="36">
+      <c r="AM26" s="38">
         <v>71.7126695182092</v>
       </c>
-      <c r="AN26" s="27">
+      <c r="AN26" s="30">
         <v>63.8737266538093</v>
       </c>
-      <c r="AO26" s="52">
+      <c r="AO26" s="53">
         <v>0.798928239079063</v>
       </c>
-      <c r="AQ26" s="53">
+      <c r="AQ26" s="54">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="AR26" s="54">
+      <c r="AR26" s="55">
         <v>0.808661664039517</v>
       </c>
     </row>
@@ -9271,53 +9026,53 @@
       <c r="AA27" s="16">
         <v>4.06950326275131</v>
       </c>
-      <c r="AB27" s="27">
+      <c r="AB27" s="30">
         <v>3.20414056890871</v>
       </c>
-      <c r="AC27" s="35">
+      <c r="AC27" s="38">
         <v>1.88342266665474</v>
       </c>
-      <c r="AD27" s="36">
+      <c r="AD27" s="38">
         <v>1.82734043269003</v>
       </c>
-      <c r="AE27" s="36">
+      <c r="AE27" s="38">
         <v>3.0893542971562</v>
       </c>
-      <c r="AF27" s="36">
+      <c r="AF27" s="38">
         <v>3.02745609987685</v>
       </c>
-      <c r="AG27" s="36">
+      <c r="AG27" s="38">
         <v>6.94106443835258</v>
       </c>
-      <c r="AH27" s="27">
+      <c r="AH27" s="30">
         <v>8.02763470608685</v>
       </c>
       <c r="AI27" s="15">
         <v>0.754821319793748</v>
       </c>
-      <c r="AJ27" s="36">
+      <c r="AJ27" s="38">
         <v>1.64430750512582</v>
       </c>
-      <c r="AK27" s="36">
+      <c r="AK27" s="38">
         <v>29.438961983623</v>
       </c>
-      <c r="AL27" s="36">
+      <c r="AL27" s="38">
         <v>48.7780904149539</v>
       </c>
-      <c r="AM27" s="36">
+      <c r="AM27" s="38">
         <v>51.0705596265801</v>
       </c>
-      <c r="AN27" s="27">
+      <c r="AN27" s="30">
         <v>71.9100672598975</v>
       </c>
-      <c r="AO27" s="52">
+      <c r="AO27" s="53">
         <v>0.693483722367296</v>
       </c>
-      <c r="AQ27" s="53">
+      <c r="AQ27" s="54">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="AR27" s="54">
+      <c r="AR27" s="55">
         <v>0.792672339713392</v>
       </c>
     </row>
@@ -9341,53 +9096,53 @@
       <c r="AA28" s="16">
         <v>3.29675988411944</v>
       </c>
-      <c r="AB28" s="27">
+      <c r="AB28" s="30">
         <v>4.23131029784505</v>
       </c>
-      <c r="AC28" s="35">
+      <c r="AC28" s="38">
         <v>1.49863486292074</v>
       </c>
-      <c r="AD28" s="36">
+      <c r="AD28" s="38">
         <v>1.53029043284718</v>
       </c>
-      <c r="AE28" s="36">
+      <c r="AE28" s="38">
         <v>2.89051137220949</v>
       </c>
-      <c r="AF28" s="36">
+      <c r="AF28" s="38">
         <v>3.5313192967649</v>
       </c>
-      <c r="AG28" s="36">
+      <c r="AG28" s="38">
         <v>6.58972549401486</v>
       </c>
-      <c r="AH28" s="27">
+      <c r="AH28" s="30">
         <v>12.1582093573139</v>
       </c>
       <c r="AI28" s="15">
         <v>0.72792809810036</v>
       </c>
-      <c r="AJ28" s="36">
+      <c r="AJ28" s="38">
         <v>1.49887109619024</v>
       </c>
-      <c r="AK28" s="36">
+      <c r="AK28" s="38">
         <v>35.2298052125359</v>
       </c>
-      <c r="AL28" s="36">
+      <c r="AL28" s="38">
         <v>50.649948410729</v>
       </c>
-      <c r="AM28" s="36">
+      <c r="AM28" s="38">
         <v>63.6721910606658</v>
       </c>
-      <c r="AN28" s="27">
+      <c r="AN28" s="30">
         <v>52.6472224837844</v>
       </c>
-      <c r="AO28" s="52">
+      <c r="AO28" s="53">
         <v>0.566096911253295</v>
       </c>
-      <c r="AQ28" s="53">
+      <c r="AQ28" s="54">
         <f t="shared" si="2"/>
         <v>70000</v>
       </c>
-      <c r="AR28" s="54">
+      <c r="AR28" s="55">
         <v>0.778072387122497</v>
       </c>
     </row>
@@ -9411,53 +9166,53 @@
       <c r="AA29" s="16">
         <v>4.60060622670832</v>
       </c>
-      <c r="AB29" s="27">
+      <c r="AB29" s="30">
         <v>3.52945858615701</v>
       </c>
-      <c r="AC29" s="35">
+      <c r="AC29" s="38">
         <v>1.64664097032361</v>
       </c>
-      <c r="AD29" s="36">
+      <c r="AD29" s="38">
         <v>1.81639189010795</v>
       </c>
-      <c r="AE29" s="36">
+      <c r="AE29" s="38">
         <v>2.57390661916166</v>
       </c>
-      <c r="AF29" s="36">
+      <c r="AF29" s="38">
         <v>3.51985671862594</v>
       </c>
-      <c r="AG29" s="36">
+      <c r="AG29" s="38">
         <v>6.89449982955221</v>
       </c>
-      <c r="AH29" s="27">
+      <c r="AH29" s="30">
         <v>14.1828562305241</v>
       </c>
       <c r="AI29" s="15">
         <v>0.765528494191309</v>
       </c>
-      <c r="AJ29" s="36">
+      <c r="AJ29" s="38">
         <v>1.35628288793844</v>
       </c>
-      <c r="AK29" s="36">
+      <c r="AK29" s="38">
         <v>34.1040670580021</v>
       </c>
-      <c r="AL29" s="36">
+      <c r="AL29" s="38">
         <v>42.4343220909908</v>
       </c>
-      <c r="AM29" s="36">
+      <c r="AM29" s="38">
         <v>93.6478100463129</v>
       </c>
-      <c r="AN29" s="27">
+      <c r="AN29" s="30">
         <v>64.4757178965471</v>
       </c>
-      <c r="AO29" s="52">
+      <c r="AO29" s="53">
         <v>0.675536773917915</v>
       </c>
-      <c r="AQ29" s="53">
+      <c r="AQ29" s="54">
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="AR29" s="54">
+      <c r="AR29" s="55">
         <v>0.764101895578765</v>
       </c>
     </row>
@@ -9481,53 +9236,53 @@
       <c r="AA30" s="16">
         <v>2.86632056354212</v>
       </c>
-      <c r="AB30" s="27">
+      <c r="AB30" s="30">
         <v>3.60041651571022</v>
       </c>
-      <c r="AC30" s="35">
+      <c r="AC30" s="38">
         <v>1.22974476712292</v>
       </c>
-      <c r="AD30" s="36">
+      <c r="AD30" s="38">
         <v>1.85908513327333</v>
       </c>
-      <c r="AE30" s="36">
+      <c r="AE30" s="38">
         <v>2.54047106206609</v>
       </c>
-      <c r="AF30" s="36">
+      <c r="AF30" s="38">
         <v>3.27725435512386</v>
       </c>
-      <c r="AG30" s="36">
+      <c r="AG30" s="38">
         <v>6.13801510145624</v>
       </c>
-      <c r="AH30" s="27">
+      <c r="AH30" s="30">
         <v>4.0242221610892</v>
       </c>
       <c r="AI30" s="15">
         <v>0.740860569437037</v>
       </c>
-      <c r="AJ30" s="36">
+      <c r="AJ30" s="38">
         <v>1.58801695373052</v>
       </c>
-      <c r="AK30" s="36">
+      <c r="AK30" s="38">
         <v>34.7470566769171</v>
       </c>
-      <c r="AL30" s="36">
+      <c r="AL30" s="38">
         <v>28.9383567014366</v>
       </c>
-      <c r="AM30" s="36">
+      <c r="AM30" s="38">
         <v>67.0924042293186</v>
       </c>
-      <c r="AN30" s="27">
+      <c r="AN30" s="30">
         <v>62.131761986861</v>
       </c>
-      <c r="AO30" s="52">
+      <c r="AO30" s="53">
         <v>0.65539868456969</v>
       </c>
-      <c r="AQ30" s="53">
+      <c r="AQ30" s="54">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="AR30" s="54">
+      <c r="AR30" s="55">
         <v>0.747387955889417</v>
       </c>
     </row>
@@ -9551,53 +9306,53 @@
       <c r="AA31" s="16">
         <v>3.6120336070359</v>
       </c>
-      <c r="AB31" s="27">
+      <c r="AB31" s="30">
         <v>3.12563099060372</v>
       </c>
-      <c r="AC31" s="35">
+      <c r="AC31" s="38">
         <v>1.66948259076596</v>
       </c>
-      <c r="AD31" s="36">
+      <c r="AD31" s="38">
         <v>1.71382340305532</v>
       </c>
-      <c r="AE31" s="36">
+      <c r="AE31" s="38">
         <v>2.44047506203816</v>
       </c>
-      <c r="AF31" s="36">
+      <c r="AF31" s="38">
         <v>3.43891744238243</v>
       </c>
-      <c r="AG31" s="36">
+      <c r="AG31" s="38">
         <v>5.78234785028763</v>
       </c>
-      <c r="AH31" s="27">
+      <c r="AH31" s="30">
         <v>10.5694110070516</v>
       </c>
       <c r="AI31" s="15">
         <v>0.693330292299272</v>
       </c>
-      <c r="AJ31" s="36">
+      <c r="AJ31" s="38">
         <v>1.71370997463343</v>
       </c>
-      <c r="AK31" s="36">
+      <c r="AK31" s="38">
         <v>29.991656942994</v>
       </c>
-      <c r="AL31" s="36">
+      <c r="AL31" s="38">
         <v>56.231558942985</v>
       </c>
-      <c r="AM31" s="36">
+      <c r="AM31" s="38">
         <v>55.7659387269973</v>
       </c>
-      <c r="AN31" s="27">
+      <c r="AN31" s="30">
         <v>69.5733297152997</v>
       </c>
-      <c r="AO31" s="52">
+      <c r="AO31" s="53">
         <v>0.654237251393608</v>
       </c>
-      <c r="AQ31" s="55">
+      <c r="AQ31" s="56">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="AR31" s="56">
+      <c r="AR31" s="57">
         <v>0.743096936963935</v>
       </c>
     </row>
@@ -9621,46 +9376,46 @@
       <c r="AA32" s="16">
         <v>4.0262876920089</v>
       </c>
-      <c r="AB32" s="27">
+      <c r="AB32" s="30">
         <v>3.83790302036898</v>
       </c>
-      <c r="AC32" s="35">
+      <c r="AC32" s="38">
         <v>1.47660388714633</v>
       </c>
-      <c r="AD32" s="36">
+      <c r="AD32" s="38">
         <v>1.46731876890834</v>
       </c>
-      <c r="AE32" s="36">
+      <c r="AE32" s="38">
         <v>2.07996568387416</v>
       </c>
-      <c r="AF32" s="36">
+      <c r="AF32" s="38">
         <v>3.74702111536529</v>
       </c>
-      <c r="AG32" s="36">
+      <c r="AG32" s="38">
         <v>4.85675920893446</v>
       </c>
-      <c r="AH32" s="27">
+      <c r="AH32" s="30">
         <v>9.34441739734</v>
       </c>
       <c r="AI32" s="15">
         <v>0.735672976017645</v>
       </c>
-      <c r="AJ32" s="36">
+      <c r="AJ32" s="38">
         <v>1.52207927360546</v>
       </c>
-      <c r="AK32" s="36">
+      <c r="AK32" s="38">
         <v>22.9721195648727</v>
       </c>
-      <c r="AL32" s="36">
+      <c r="AL32" s="38">
         <v>41.7294379368873</v>
       </c>
-      <c r="AM32" s="36">
+      <c r="AM32" s="38">
         <v>54.5122676909471</v>
       </c>
-      <c r="AN32" s="27">
+      <c r="AN32" s="30">
         <v>57.4462604750931</v>
       </c>
-      <c r="AO32" s="52">
+      <c r="AO32" s="53">
         <v>0.632091709073503</v>
       </c>
     </row>
@@ -9684,46 +9439,46 @@
       <c r="AA33" s="16">
         <v>2.83033138440157</v>
       </c>
-      <c r="AB33" s="27">
+      <c r="AB33" s="30">
         <v>3.87792216559802</v>
       </c>
-      <c r="AC33" s="35">
+      <c r="AC33" s="38">
         <v>1.47251838778459</v>
       </c>
-      <c r="AD33" s="36">
+      <c r="AD33" s="38">
         <v>1.91486877580833</v>
       </c>
-      <c r="AE33" s="36">
+      <c r="AE33" s="38">
         <v>2.6326098697241</v>
       </c>
-      <c r="AF33" s="36">
+      <c r="AF33" s="38">
         <v>4.31723334710244</v>
       </c>
-      <c r="AG33" s="36">
+      <c r="AG33" s="38">
         <v>5.36168713129591</v>
       </c>
-      <c r="AH33" s="27">
+      <c r="AH33" s="30">
         <v>9.40360788759724</v>
       </c>
       <c r="AI33" s="15">
         <v>0.766958739747078</v>
       </c>
-      <c r="AJ33" s="36">
+      <c r="AJ33" s="38">
         <v>1.4758160870357</v>
       </c>
-      <c r="AK33" s="36">
+      <c r="AK33" s="38">
         <v>26.8701547560565</v>
       </c>
-      <c r="AL33" s="36">
+      <c r="AL33" s="38">
         <v>49.2450210099951</v>
       </c>
-      <c r="AM33" s="36">
+      <c r="AM33" s="38">
         <v>68.9263964589128</v>
       </c>
-      <c r="AN33" s="27">
+      <c r="AN33" s="30">
         <v>83.1937944362857</v>
       </c>
-      <c r="AO33" s="52">
+      <c r="AO33" s="53">
         <v>0.702475038295942</v>
       </c>
     </row>
@@ -9747,46 +9502,46 @@
       <c r="AA34" s="16">
         <v>3.47208384530165</v>
       </c>
-      <c r="AB34" s="27">
+      <c r="AB34" s="30">
         <v>5.05615145866202</v>
       </c>
-      <c r="AC34" s="35">
+      <c r="AC34" s="38">
         <v>1.53155844099435</v>
       </c>
-      <c r="AD34" s="36">
+      <c r="AD34" s="38">
         <v>1.81234667847994</v>
       </c>
-      <c r="AE34" s="36">
+      <c r="AE34" s="38">
         <v>2.06767521678331</v>
       </c>
-      <c r="AF34" s="36">
+      <c r="AF34" s="38">
         <v>3.34261955198232</v>
       </c>
-      <c r="AG34" s="36">
+      <c r="AG34" s="38">
         <v>5.48134751728696</v>
       </c>
-      <c r="AH34" s="27">
+      <c r="AH34" s="30">
         <v>9.13873928445921</v>
       </c>
       <c r="AI34" s="15">
         <v>0.696481508610877</v>
       </c>
-      <c r="AJ34" s="36">
+      <c r="AJ34" s="38">
         <v>1.75660308681209</v>
       </c>
-      <c r="AK34" s="36">
+      <c r="AK34" s="38">
         <v>31.6360743126162</v>
       </c>
-      <c r="AL34" s="36">
+      <c r="AL34" s="38">
         <v>49.7733996394597</v>
       </c>
-      <c r="AM34" s="36">
+      <c r="AM34" s="38">
         <v>60.7302215835683</v>
       </c>
-      <c r="AN34" s="27">
+      <c r="AN34" s="30">
         <v>78.490692405448</v>
       </c>
-      <c r="AO34" s="52">
+      <c r="AO34" s="53">
         <v>0.715778119525377</v>
       </c>
     </row>
@@ -9810,46 +9565,46 @@
       <c r="AA35" s="16">
         <v>3.74555331247714</v>
       </c>
-      <c r="AB35" s="27">
+      <c r="AB35" s="30">
         <v>2.59589083771968</v>
       </c>
-      <c r="AC35" s="35">
+      <c r="AC35" s="38">
         <v>1.41876939870797</v>
       </c>
-      <c r="AD35" s="36">
+      <c r="AD35" s="38">
         <v>1.9485937497763</v>
       </c>
-      <c r="AE35" s="36">
+      <c r="AE35" s="38">
         <v>2.35791640659687</v>
       </c>
-      <c r="AF35" s="36">
+      <c r="AF35" s="38">
         <v>3.9691297301207</v>
       </c>
-      <c r="AG35" s="36">
+      <c r="AG35" s="38">
         <v>6.3969410985751</v>
       </c>
-      <c r="AH35" s="27">
+      <c r="AH35" s="30">
         <v>8.25891517776599</v>
       </c>
       <c r="AI35" s="15">
         <v>0.646326483448206</v>
       </c>
-      <c r="AJ35" s="36">
+      <c r="AJ35" s="38">
         <v>1.77175089312148</v>
       </c>
-      <c r="AK35" s="36">
+      <c r="AK35" s="38">
         <v>23.5630740853474</v>
       </c>
-      <c r="AL35" s="36">
+      <c r="AL35" s="38">
         <v>48.9558934481394</v>
       </c>
-      <c r="AM35" s="36">
+      <c r="AM35" s="38">
         <v>48.7803100220115</v>
       </c>
-      <c r="AN35" s="27">
+      <c r="AN35" s="30">
         <v>59.9808767063994</v>
       </c>
-      <c r="AO35" s="52">
+      <c r="AO35" s="53">
         <v>0.847190573040713</v>
       </c>
     </row>
@@ -9873,46 +9628,46 @@
       <c r="AA36" s="16">
         <v>3.3734829186364</v>
       </c>
-      <c r="AB36" s="27">
+      <c r="AB36" s="30">
         <v>4.2641660126884</v>
       </c>
-      <c r="AC36" s="35">
+      <c r="AC36" s="38">
         <v>1.55527833495862</v>
       </c>
-      <c r="AD36" s="36">
+      <c r="AD36" s="38">
         <v>1.83778369708032</v>
       </c>
-      <c r="AE36" s="36">
+      <c r="AE36" s="38">
         <v>3.03938372963412</v>
       </c>
-      <c r="AF36" s="36">
+      <c r="AF36" s="38">
         <v>3.97724197213459</v>
       </c>
-      <c r="AG36" s="36">
+      <c r="AG36" s="38">
         <v>5.8259977044288</v>
       </c>
-      <c r="AH36" s="27">
+      <c r="AH36" s="30">
         <v>11.483385071377</v>
       </c>
       <c r="AI36" s="15">
         <v>0.852277626856297</v>
       </c>
-      <c r="AJ36" s="36">
+      <c r="AJ36" s="38">
         <v>1.68099682559645</v>
       </c>
-      <c r="AK36" s="36">
+      <c r="AK36" s="38">
         <v>35.5848962209364</v>
       </c>
-      <c r="AL36" s="36">
+      <c r="AL36" s="38">
         <v>47.0175686774115</v>
       </c>
-      <c r="AM36" s="36">
+      <c r="AM36" s="38">
         <v>77.3866761443831</v>
       </c>
-      <c r="AN36" s="27">
+      <c r="AN36" s="30">
         <v>94.1865181018802</v>
       </c>
-      <c r="AO36" s="52">
+      <c r="AO36" s="53">
         <v>0.818535358441783</v>
       </c>
     </row>
@@ -9936,46 +9691,46 @@
       <c r="AA37" s="16">
         <v>3.57221935138243</v>
       </c>
-      <c r="AB37" s="27">
+      <c r="AB37" s="30">
         <v>3.3913433153336</v>
       </c>
-      <c r="AC37" s="35">
+      <c r="AC37" s="38">
         <v>1.76889081297497</v>
       </c>
-      <c r="AD37" s="36">
+      <c r="AD37" s="38">
         <v>2.14119999895079</v>
       </c>
-      <c r="AE37" s="36">
+      <c r="AE37" s="38">
         <v>2.32658865921351</v>
       </c>
-      <c r="AF37" s="36">
+      <c r="AF37" s="38">
         <v>3.0947532367252</v>
       </c>
-      <c r="AG37" s="36">
+      <c r="AG37" s="38">
         <v>7.12795824449106</v>
       </c>
-      <c r="AH37" s="27">
+      <c r="AH37" s="30">
         <v>11.436639470365</v>
       </c>
       <c r="AI37" s="15">
         <v>0.646541415534834</v>
       </c>
-      <c r="AJ37" s="36">
+      <c r="AJ37" s="38">
         <v>1.34077313762051</v>
       </c>
-      <c r="AK37" s="36">
+      <c r="AK37" s="38">
         <v>36.1678444866053</v>
       </c>
-      <c r="AL37" s="36">
+      <c r="AL37" s="38">
         <v>51.6901343862271</v>
       </c>
-      <c r="AM37" s="36">
+      <c r="AM37" s="38">
         <v>63.1093610896433</v>
       </c>
-      <c r="AN37" s="27">
+      <c r="AN37" s="30">
         <v>78.8553678062785</v>
       </c>
-      <c r="AO37" s="52">
+      <c r="AO37" s="53">
         <v>0.746976612613808</v>
       </c>
     </row>
@@ -9999,46 +9754,46 @@
       <c r="AA38" s="16">
         <v>3.43598089407776</v>
       </c>
-      <c r="AB38" s="27">
+      <c r="AB38" s="30">
         <v>3.39184355283893</v>
       </c>
-      <c r="AC38" s="35">
+      <c r="AC38" s="38">
         <v>1.42251209107019</v>
       </c>
-      <c r="AD38" s="36">
+      <c r="AD38" s="38">
         <v>1.86531570656855</v>
       </c>
-      <c r="AE38" s="36">
+      <c r="AE38" s="38">
         <v>2.15358508143606</v>
       </c>
-      <c r="AF38" s="36">
+      <c r="AF38" s="38">
         <v>3.29924429176702</v>
       </c>
-      <c r="AG38" s="36">
+      <c r="AG38" s="38">
         <v>3.85949397429949</v>
       </c>
-      <c r="AH38" s="27">
+      <c r="AH38" s="30">
         <v>9.52813080720101</v>
       </c>
       <c r="AI38" s="15">
         <v>0.704580567334286</v>
       </c>
-      <c r="AJ38" s="36">
+      <c r="AJ38" s="38">
         <v>1.56262899781815</v>
       </c>
-      <c r="AK38" s="36">
+      <c r="AK38" s="38">
         <v>23.4722326485897</v>
       </c>
-      <c r="AL38" s="36">
+      <c r="AL38" s="38">
         <v>49.7694357941303</v>
       </c>
-      <c r="AM38" s="36">
+      <c r="AM38" s="38">
         <v>51.801596062947</v>
       </c>
-      <c r="AN38" s="27">
+      <c r="AN38" s="30">
         <v>46.2770461991315</v>
       </c>
-      <c r="AO38" s="52">
+      <c r="AO38" s="53">
         <v>0.647769524193142</v>
       </c>
     </row>
@@ -10062,46 +9817,46 @@
       <c r="AA39" s="16">
         <v>4.49990654054629</v>
       </c>
-      <c r="AB39" s="27">
+      <c r="AB39" s="30">
         <v>2.53696973642319</v>
       </c>
-      <c r="AC39" s="35">
+      <c r="AC39" s="38">
         <v>1.56809522581918</v>
       </c>
-      <c r="AD39" s="36">
+      <c r="AD39" s="38">
         <v>1.71328324689274</v>
       </c>
-      <c r="AE39" s="36">
+      <c r="AE39" s="38">
         <v>2.22332294461549</v>
       </c>
-      <c r="AF39" s="36">
+      <c r="AF39" s="38">
         <v>3.57497099650969</v>
       </c>
-      <c r="AG39" s="36">
+      <c r="AG39" s="38">
         <v>5.5706637860332</v>
       </c>
-      <c r="AH39" s="27">
+      <c r="AH39" s="30">
         <v>12.8002408927815</v>
       </c>
       <c r="AI39" s="15">
         <v>0.820091946633096</v>
       </c>
-      <c r="AJ39" s="36">
+      <c r="AJ39" s="38">
         <v>1.51534074595612</v>
       </c>
-      <c r="AK39" s="36">
+      <c r="AK39" s="38">
         <v>24.0161522169384</v>
       </c>
-      <c r="AL39" s="36">
+      <c r="AL39" s="38">
         <v>59.0103362647012</v>
       </c>
-      <c r="AM39" s="36">
+      <c r="AM39" s="38">
         <v>55.3131015131847</v>
       </c>
-      <c r="AN39" s="27">
+      <c r="AN39" s="30">
         <v>64.9805679160339</v>
       </c>
-      <c r="AO39" s="52">
+      <c r="AO39" s="53">
         <v>0.787338749758505</v>
       </c>
     </row>
@@ -10125,46 +9880,46 @@
       <c r="AA40" s="16">
         <v>3.69663266101562</v>
       </c>
-      <c r="AB40" s="27">
+      <c r="AB40" s="30">
         <v>4.32137091752389</v>
       </c>
-      <c r="AC40" s="35">
+      <c r="AC40" s="38">
         <v>1.80191439868449</v>
       </c>
-      <c r="AD40" s="36">
+      <c r="AD40" s="38">
         <v>1.86052796030665</v>
       </c>
-      <c r="AE40" s="36">
+      <c r="AE40" s="38">
         <v>2.12950564215807</v>
       </c>
-      <c r="AF40" s="36">
+      <c r="AF40" s="38">
         <v>3.82730194610502</v>
       </c>
-      <c r="AG40" s="36">
+      <c r="AG40" s="38">
         <v>7.14546422562505</v>
       </c>
-      <c r="AH40" s="27">
+      <c r="AH40" s="30">
         <v>10.246171655761</v>
       </c>
       <c r="AI40" s="15">
         <v>0.739159482356958</v>
       </c>
-      <c r="AJ40" s="36">
+      <c r="AJ40" s="38">
         <v>1.52271313903051</v>
       </c>
-      <c r="AK40" s="36">
+      <c r="AK40" s="38">
         <v>24.1612751983584</v>
       </c>
-      <c r="AL40" s="36">
+      <c r="AL40" s="38">
         <v>51.891472803344</v>
       </c>
-      <c r="AM40" s="36">
+      <c r="AM40" s="38">
         <v>80.6355927706828</v>
       </c>
-      <c r="AN40" s="27">
+      <c r="AN40" s="30">
         <v>89.3167066539576</v>
       </c>
-      <c r="AO40" s="52">
+      <c r="AO40" s="53">
         <v>0.834404409495924</v>
       </c>
     </row>
@@ -10188,46 +9943,46 @@
       <c r="AA41" s="16">
         <v>3.3444888072013</v>
       </c>
-      <c r="AB41" s="27">
+      <c r="AB41" s="30">
         <v>3.41918719480363</v>
       </c>
-      <c r="AC41" s="35">
+      <c r="AC41" s="38">
         <v>1.45958175351464</v>
       </c>
-      <c r="AD41" s="36">
+      <c r="AD41" s="38">
         <v>1.93546371826832</v>
       </c>
-      <c r="AE41" s="36">
+      <c r="AE41" s="38">
         <v>2.76662902437216</v>
       </c>
-      <c r="AF41" s="36">
+      <c r="AF41" s="38">
         <v>4.39061325552037</v>
       </c>
-      <c r="AG41" s="36">
+      <c r="AG41" s="38">
         <v>3.42216524392188</v>
       </c>
-      <c r="AH41" s="27">
+      <c r="AH41" s="30">
         <v>8.68672563777051</v>
       </c>
       <c r="AI41" s="15">
         <v>0.705292428998662</v>
       </c>
-      <c r="AJ41" s="36">
+      <c r="AJ41" s="38">
         <v>1.9478527629882</v>
       </c>
-      <c r="AK41" s="36">
+      <c r="AK41" s="38">
         <v>35.6531219142181</v>
       </c>
-      <c r="AL41" s="36">
+      <c r="AL41" s="38">
         <v>29.216848482333</v>
       </c>
-      <c r="AM41" s="36">
+      <c r="AM41" s="38">
         <v>74.4620184473163</v>
       </c>
-      <c r="AN41" s="27">
+      <c r="AN41" s="30">
         <v>63.3906840060226</v>
       </c>
-      <c r="AO41" s="52">
+      <c r="AO41" s="53">
         <v>0.78977528454072</v>
       </c>
     </row>
@@ -10251,46 +10006,46 @@
       <c r="AA42" s="16">
         <v>3.93824320286673</v>
       </c>
-      <c r="AB42" s="27">
+      <c r="AB42" s="30">
         <v>3.12201386295942</v>
       </c>
-      <c r="AC42" s="35">
+      <c r="AC42" s="38">
         <v>1.8301146536668</v>
       </c>
-      <c r="AD42" s="36">
+      <c r="AD42" s="38">
         <v>1.53370421357381</v>
       </c>
-      <c r="AE42" s="36">
+      <c r="AE42" s="38">
         <v>2.23271046967904</v>
       </c>
-      <c r="AF42" s="36">
+      <c r="AF42" s="38">
         <v>4.39163250653357</v>
       </c>
-      <c r="AG42" s="36">
+      <c r="AG42" s="38">
         <v>6.60902571184205</v>
       </c>
-      <c r="AH42" s="27">
+      <c r="AH42" s="30">
         <v>10.8316431754398</v>
       </c>
       <c r="AI42" s="15">
         <v>0.662328926469159</v>
       </c>
-      <c r="AJ42" s="36">
+      <c r="AJ42" s="38">
         <v>1.6650141378284</v>
       </c>
-      <c r="AK42" s="36">
+      <c r="AK42" s="38">
         <v>33.681575871186</v>
       </c>
-      <c r="AL42" s="36">
+      <c r="AL42" s="38">
         <v>40.7119170067614</v>
       </c>
-      <c r="AM42" s="36">
+      <c r="AM42" s="38">
         <v>78.5097816153917</v>
       </c>
-      <c r="AN42" s="27">
+      <c r="AN42" s="30">
         <v>47.9839426511655</v>
       </c>
-      <c r="AO42" s="52">
+      <c r="AO42" s="53">
         <v>0.693135316984079</v>
       </c>
     </row>
@@ -10314,46 +10069,46 @@
       <c r="AA43" s="16">
         <v>4.0557980325541</v>
       </c>
-      <c r="AB43" s="27">
+      <c r="AB43" s="30">
         <v>3.60857976989035</v>
       </c>
-      <c r="AC43" s="35">
+      <c r="AC43" s="38">
         <v>1.6033672339018</v>
       </c>
-      <c r="AD43" s="36">
+      <c r="AD43" s="38">
         <v>1.7729282292313</v>
       </c>
-      <c r="AE43" s="36">
+      <c r="AE43" s="38">
         <v>3.14222767290132</v>
       </c>
-      <c r="AF43" s="36">
+      <c r="AF43" s="38">
         <v>3.90106160439217</v>
       </c>
-      <c r="AG43" s="36">
+      <c r="AG43" s="38">
         <v>5.441223205936</v>
       </c>
-      <c r="AH43" s="27">
+      <c r="AH43" s="30">
         <v>9.88877656834536</v>
       </c>
       <c r="AI43" s="15">
         <v>0.760107416800248</v>
       </c>
-      <c r="AJ43" s="36">
+      <c r="AJ43" s="38">
         <v>1.47084791269941</v>
       </c>
-      <c r="AK43" s="36">
+      <c r="AK43" s="38">
         <v>17.7307233496665</v>
       </c>
-      <c r="AL43" s="36">
+      <c r="AL43" s="38">
         <v>50.8334735850993</v>
       </c>
-      <c r="AM43" s="36">
+      <c r="AM43" s="38">
         <v>90.2340056960197</v>
       </c>
-      <c r="AN43" s="27">
+      <c r="AN43" s="30">
         <v>65.8509969504849</v>
       </c>
-      <c r="AO43" s="52">
+      <c r="AO43" s="53">
         <v>0.753663937525976</v>
       </c>
     </row>
@@ -10377,46 +10132,46 @@
       <c r="AA44" s="16">
         <v>3.64170699188872</v>
       </c>
-      <c r="AB44" s="27">
+      <c r="AB44" s="30">
         <v>3.24031676568742</v>
       </c>
-      <c r="AC44" s="35">
+      <c r="AC44" s="38">
         <v>1.72635283045332</v>
       </c>
-      <c r="AD44" s="36">
+      <c r="AD44" s="38">
         <v>1.90315830704362</v>
       </c>
-      <c r="AE44" s="36">
+      <c r="AE44" s="38">
         <v>1.91848686065265</v>
       </c>
-      <c r="AF44" s="36">
+      <c r="AF44" s="38">
         <v>3.6935047329033</v>
       </c>
-      <c r="AG44" s="36">
+      <c r="AG44" s="38">
         <v>5.29931250375443</v>
       </c>
-      <c r="AH44" s="27">
+      <c r="AH44" s="30">
         <v>10.4341407187654</v>
       </c>
       <c r="AI44" s="15">
         <v>0.747239840396502</v>
       </c>
-      <c r="AJ44" s="36">
+      <c r="AJ44" s="38">
         <v>1.39404478398107</v>
       </c>
-      <c r="AK44" s="36">
+      <c r="AK44" s="38">
         <v>30.3135184619327</v>
       </c>
-      <c r="AL44" s="36">
+      <c r="AL44" s="38">
         <v>52.4094503073043</v>
       </c>
-      <c r="AM44" s="36">
+      <c r="AM44" s="38">
         <v>77.5316739363035</v>
       </c>
-      <c r="AN44" s="27">
+      <c r="AN44" s="30">
         <v>78.5545488502601</v>
       </c>
-      <c r="AO44" s="52">
+      <c r="AO44" s="53">
         <v>0.942596194380846</v>
       </c>
     </row>
@@ -10440,46 +10195,46 @@
       <c r="AA45" s="16">
         <v>3.36721248673164</v>
       </c>
-      <c r="AB45" s="27">
+      <c r="AB45" s="30">
         <v>4.17351921116812</v>
       </c>
-      <c r="AC45" s="35">
+      <c r="AC45" s="38">
         <v>1.85886831251478</v>
       </c>
-      <c r="AD45" s="36">
+      <c r="AD45" s="38">
         <v>1.80829158692905</v>
       </c>
-      <c r="AE45" s="36">
+      <c r="AE45" s="38">
         <v>2.22815352264367</v>
       </c>
-      <c r="AF45" s="36">
+      <c r="AF45" s="38">
         <v>3.74842758063653</v>
       </c>
-      <c r="AG45" s="36">
+      <c r="AG45" s="38">
         <v>5.49363262726857</v>
       </c>
-      <c r="AH45" s="27">
+      <c r="AH45" s="30">
         <v>9.58224151783766</v>
       </c>
       <c r="AI45" s="15">
         <v>0.603296011656495</v>
       </c>
-      <c r="AJ45" s="36">
+      <c r="AJ45" s="38">
         <v>1.60982491308564</v>
       </c>
-      <c r="AK45" s="36">
+      <c r="AK45" s="38">
         <v>28.6697090854345</v>
       </c>
-      <c r="AL45" s="36">
+      <c r="AL45" s="38">
         <v>46.2625147482103</v>
       </c>
-      <c r="AM45" s="36">
+      <c r="AM45" s="38">
         <v>67.2392930904988</v>
       </c>
-      <c r="AN45" s="27">
+      <c r="AN45" s="30">
         <v>71.5200199822935</v>
       </c>
-      <c r="AO45" s="52">
+      <c r="AO45" s="53">
         <v>0.795948937488592</v>
       </c>
     </row>
@@ -10503,46 +10258,46 @@
       <c r="AA46" s="16">
         <v>4.22022196169076</v>
       </c>
-      <c r="AB46" s="27">
+      <c r="AB46" s="30">
         <v>3.75871302772522</v>
       </c>
-      <c r="AC46" s="35">
+      <c r="AC46" s="38">
         <v>1.8659509940782</v>
       </c>
-      <c r="AD46" s="36">
+      <c r="AD46" s="38">
         <v>1.72152521970954</v>
       </c>
-      <c r="AE46" s="36">
+      <c r="AE46" s="38">
         <v>2.35310515217059</v>
       </c>
-      <c r="AF46" s="36">
+      <c r="AF46" s="38">
         <v>3.10093523676221</v>
       </c>
-      <c r="AG46" s="36">
+      <c r="AG46" s="38">
         <v>5.58214865598302</v>
       </c>
-      <c r="AH46" s="27">
+      <c r="AH46" s="30">
         <v>8.87936957636731</v>
       </c>
       <c r="AI46" s="15">
         <v>0.769457283718494</v>
       </c>
-      <c r="AJ46" s="36">
+      <c r="AJ46" s="38">
         <v>1.61911941457506</v>
       </c>
-      <c r="AK46" s="36">
+      <c r="AK46" s="38">
         <v>33.4988929956803</v>
       </c>
-      <c r="AL46" s="36">
+      <c r="AL46" s="38">
         <v>50.4700770983896</v>
       </c>
-      <c r="AM46" s="36">
+      <c r="AM46" s="38">
         <v>60.3578887878741</v>
       </c>
-      <c r="AN46" s="27">
+      <c r="AN46" s="30">
         <v>61.8023664467905</v>
       </c>
-      <c r="AO46" s="52">
+      <c r="AO46" s="53">
         <v>0.757187111699853</v>
       </c>
     </row>
@@ -10566,46 +10321,46 @@
       <c r="AA47" s="16">
         <v>3.0051878237603</v>
       </c>
-      <c r="AB47" s="27">
+      <c r="AB47" s="30">
         <v>2.82005675038059</v>
       </c>
-      <c r="AC47" s="35">
+      <c r="AC47" s="38">
         <v>1.69430858021693</v>
       </c>
-      <c r="AD47" s="36">
+      <c r="AD47" s="38">
         <v>1.79988603566032</v>
       </c>
-      <c r="AE47" s="36">
+      <c r="AE47" s="38">
         <v>2.09036806559059</v>
       </c>
-      <c r="AF47" s="36">
+      <c r="AF47" s="38">
         <v>3.03157258953599</v>
       </c>
-      <c r="AG47" s="36">
+      <c r="AG47" s="38">
         <v>8.5966354300444</v>
       </c>
-      <c r="AH47" s="27">
+      <c r="AH47" s="30">
         <v>8.00694981856485</v>
       </c>
       <c r="AI47" s="15">
         <v>0.797296064730897</v>
       </c>
-      <c r="AJ47" s="36">
+      <c r="AJ47" s="38">
         <v>1.52137970327569</v>
       </c>
-      <c r="AK47" s="36">
+      <c r="AK47" s="38">
         <v>27.2386131791381</v>
       </c>
-      <c r="AL47" s="36">
+      <c r="AL47" s="38">
         <v>47.5508437501623</v>
       </c>
-      <c r="AM47" s="36">
+      <c r="AM47" s="38">
         <v>70.3156351262816</v>
       </c>
-      <c r="AN47" s="27">
+      <c r="AN47" s="30">
         <v>91.1731157812969</v>
       </c>
-      <c r="AO47" s="52">
+      <c r="AO47" s="53">
         <v>0.722815352971547</v>
       </c>
     </row>
@@ -10629,46 +10384,46 @@
       <c r="AA48" s="16">
         <v>2.92289293664367</v>
       </c>
-      <c r="AB48" s="27">
+      <c r="AB48" s="30">
         <v>2.4711879204915</v>
       </c>
-      <c r="AC48" s="35">
+      <c r="AC48" s="38">
         <v>1.51116955947575</v>
       </c>
-      <c r="AD48" s="36">
+      <c r="AD48" s="38">
         <v>2.04012547633263</v>
       </c>
-      <c r="AE48" s="36">
+      <c r="AE48" s="38">
         <v>3.06585987063073</v>
       </c>
-      <c r="AF48" s="36">
+      <c r="AF48" s="38">
         <v>5.25259036269572</v>
       </c>
-      <c r="AG48" s="36">
+      <c r="AG48" s="38">
         <v>7.30354777732107</v>
       </c>
-      <c r="AH48" s="27">
+      <c r="AH48" s="30">
         <v>8.45557826036742</v>
       </c>
       <c r="AI48" s="15">
         <v>0.602449311266445</v>
       </c>
-      <c r="AJ48" s="36">
+      <c r="AJ48" s="38">
         <v>1.56948211405282</v>
       </c>
-      <c r="AK48" s="36">
+      <c r="AK48" s="38">
         <v>26.0563752411414</v>
       </c>
-      <c r="AL48" s="36">
+      <c r="AL48" s="38">
         <v>38.9692541119431</v>
       </c>
-      <c r="AM48" s="36">
+      <c r="AM48" s="38">
         <v>68.9272621667993</v>
       </c>
-      <c r="AN48" s="27">
+      <c r="AN48" s="30">
         <v>49.2526432981268</v>
       </c>
-      <c r="AO48" s="52">
+      <c r="AO48" s="53">
         <v>0.721399360755851</v>
       </c>
     </row>
@@ -10692,46 +10447,46 @@
       <c r="AA49" s="16">
         <v>2.87766888860882</v>
       </c>
-      <c r="AB49" s="27">
+      <c r="AB49" s="30">
         <v>4.56114533847577</v>
       </c>
-      <c r="AC49" s="35">
+      <c r="AC49" s="38">
         <v>1.76527894159142</v>
       </c>
-      <c r="AD49" s="36">
+      <c r="AD49" s="38">
         <v>1.46148472090973</v>
       </c>
-      <c r="AE49" s="36">
+      <c r="AE49" s="38">
         <v>2.51888106802626</v>
       </c>
-      <c r="AF49" s="36">
+      <c r="AF49" s="38">
         <v>4.77816013713963</v>
       </c>
-      <c r="AG49" s="36">
+      <c r="AG49" s="38">
         <v>7.32133910310204</v>
       </c>
-      <c r="AH49" s="27">
+      <c r="AH49" s="30">
         <v>7.55680490113867</v>
       </c>
       <c r="AI49" s="15">
         <v>0.805000383724967</v>
       </c>
-      <c r="AJ49" s="36">
+      <c r="AJ49" s="38">
         <v>1.73347460494296</v>
       </c>
-      <c r="AK49" s="36">
+      <c r="AK49" s="38">
         <v>39.952631196518</v>
       </c>
-      <c r="AL49" s="36">
+      <c r="AL49" s="38">
         <v>43.4095080021245</v>
       </c>
-      <c r="AM49" s="36">
+      <c r="AM49" s="38">
         <v>70.3009162491291</v>
       </c>
-      <c r="AN49" s="27">
+      <c r="AN49" s="30">
         <v>61.744404059336</v>
       </c>
-      <c r="AO49" s="52">
+      <c r="AO49" s="53">
         <v>0.777552014764658</v>
       </c>
     </row>
@@ -10755,46 +10510,46 @@
       <c r="AA50" s="16">
         <v>2.80290082921706</v>
       </c>
-      <c r="AB50" s="27">
+      <c r="AB50" s="30">
         <v>4.3558912151247</v>
       </c>
-      <c r="AC50" s="35">
+      <c r="AC50" s="38">
         <v>1.66722252779299</v>
       </c>
-      <c r="AD50" s="36">
+      <c r="AD50" s="38">
         <v>1.75210498555154</v>
       </c>
-      <c r="AE50" s="36">
+      <c r="AE50" s="38">
         <v>2.60985207734348</v>
       </c>
-      <c r="AF50" s="36">
+      <c r="AF50" s="38">
         <v>4.9359608049074</v>
       </c>
-      <c r="AG50" s="36">
+      <c r="AG50" s="38">
         <v>5.50124830586947</v>
       </c>
-      <c r="AH50" s="27">
+      <c r="AH50" s="30">
         <v>8.4397369398644</v>
       </c>
       <c r="AI50" s="15">
         <v>0.856368637803024</v>
       </c>
-      <c r="AJ50" s="36">
+      <c r="AJ50" s="38">
         <v>1.57872019376527</v>
       </c>
-      <c r="AK50" s="36">
+      <c r="AK50" s="38">
         <v>19.7012759236169</v>
       </c>
-      <c r="AL50" s="36">
+      <c r="AL50" s="38">
         <v>52.792477709662</v>
       </c>
-      <c r="AM50" s="36">
+      <c r="AM50" s="38">
         <v>50.5497332570939</v>
       </c>
-      <c r="AN50" s="27">
+      <c r="AN50" s="30">
         <v>89.5442987862247</v>
       </c>
-      <c r="AO50" s="52">
+      <c r="AO50" s="53">
         <v>0.751709335036008</v>
       </c>
     </row>
@@ -10818,46 +10573,46 @@
       <c r="AA51" s="16">
         <v>2.76987505262097</v>
       </c>
-      <c r="AB51" s="27">
+      <c r="AB51" s="30">
         <v>3.76210917391584</v>
       </c>
-      <c r="AC51" s="35">
+      <c r="AC51" s="38">
         <v>1.57976169330354</v>
       </c>
-      <c r="AD51" s="36">
+      <c r="AD51" s="38">
         <v>1.41301904810659</v>
       </c>
-      <c r="AE51" s="36">
+      <c r="AE51" s="38">
         <v>2.03425173371148</v>
       </c>
-      <c r="AF51" s="36">
+      <c r="AF51" s="38">
         <v>3.31490944881091</v>
       </c>
-      <c r="AG51" s="36">
+      <c r="AG51" s="38">
         <v>5.76474795788007</v>
       </c>
-      <c r="AH51" s="27">
+      <c r="AH51" s="30">
         <v>7.02729511501599</v>
       </c>
       <c r="AI51" s="15">
         <v>0.787948239770154</v>
       </c>
-      <c r="AJ51" s="36">
+      <c r="AJ51" s="38">
         <v>1.53512438615995</v>
       </c>
-      <c r="AK51" s="36">
+      <c r="AK51" s="38">
         <v>27.1073952292756</v>
       </c>
-      <c r="AL51" s="36">
+      <c r="AL51" s="38">
         <v>48.8397147078737</v>
       </c>
-      <c r="AM51" s="36">
+      <c r="AM51" s="38">
         <v>81.2192586521629</v>
       </c>
-      <c r="AN51" s="27">
+      <c r="AN51" s="30">
         <v>59.6997219814849</v>
       </c>
-      <c r="AO51" s="52">
+      <c r="AO51" s="53">
         <v>0.667614902535675</v>
       </c>
     </row>
@@ -10881,46 +10636,46 @@
       <c r="AA52" s="16">
         <v>4.47898019700314</v>
       </c>
-      <c r="AB52" s="27">
+      <c r="AB52" s="30">
         <v>3.58907287228578</v>
       </c>
-      <c r="AC52" s="35">
+      <c r="AC52" s="38">
         <v>1.44775697321819</v>
       </c>
-      <c r="AD52" s="36">
+      <c r="AD52" s="38">
         <v>1.74839751525659</v>
       </c>
-      <c r="AE52" s="36">
+      <c r="AE52" s="38">
         <v>2.18856096533674</v>
       </c>
-      <c r="AF52" s="36">
+      <c r="AF52" s="38">
         <v>4.34765725052239</v>
       </c>
-      <c r="AG52" s="36">
+      <c r="AG52" s="38">
         <v>4.24851009948366</v>
       </c>
-      <c r="AH52" s="27">
+      <c r="AH52" s="30">
         <v>9.17384543058361</v>
       </c>
       <c r="AI52" s="15">
         <v>0.762994147745209</v>
       </c>
-      <c r="AJ52" s="36">
+      <c r="AJ52" s="38">
         <v>1.55732987312288</v>
       </c>
-      <c r="AK52" s="36">
+      <c r="AK52" s="38">
         <v>27.0202440579325</v>
       </c>
-      <c r="AL52" s="36">
+      <c r="AL52" s="38">
         <v>45.8229689102268</v>
       </c>
-      <c r="AM52" s="36">
+      <c r="AM52" s="38">
         <v>73.8016723332098</v>
       </c>
-      <c r="AN52" s="27">
+      <c r="AN52" s="30">
         <v>78.8766954424272</v>
       </c>
-      <c r="AO52" s="52">
+      <c r="AO52" s="53">
         <v>0.804930970007945</v>
       </c>
     </row>
@@ -10944,46 +10699,46 @@
       <c r="AA53" s="16">
         <v>4.26512058736997</v>
       </c>
-      <c r="AB53" s="27">
+      <c r="AB53" s="30">
         <v>3.51149152601011</v>
       </c>
-      <c r="AC53" s="35">
+      <c r="AC53" s="38">
         <v>1.45251183682939</v>
       </c>
-      <c r="AD53" s="36">
+      <c r="AD53" s="38">
         <v>2.01462007277041</v>
       </c>
-      <c r="AE53" s="36">
+      <c r="AE53" s="38">
         <v>2.49758486894292</v>
       </c>
-      <c r="AF53" s="36">
+      <c r="AF53" s="38">
         <v>2.67546035289387</v>
       </c>
-      <c r="AG53" s="36">
+      <c r="AG53" s="38">
         <v>5.7600212054758</v>
       </c>
-      <c r="AH53" s="27">
+      <c r="AH53" s="30">
         <v>11.8840826745995</v>
       </c>
       <c r="AI53" s="15">
         <v>0.871641511499698</v>
       </c>
-      <c r="AJ53" s="36">
+      <c r="AJ53" s="38">
         <v>1.64309944468819</v>
       </c>
-      <c r="AK53" s="36">
+      <c r="AK53" s="38">
         <v>25.0403440840489</v>
       </c>
-      <c r="AL53" s="36">
+      <c r="AL53" s="38">
         <v>20.5407674494138</v>
       </c>
-      <c r="AM53" s="36">
+      <c r="AM53" s="38">
         <v>80.3428020066142</v>
       </c>
-      <c r="AN53" s="27">
+      <c r="AN53" s="30">
         <v>95.5563545804279</v>
       </c>
-      <c r="AO53" s="52">
+      <c r="AO53" s="53">
         <v>0.773022905946757</v>
       </c>
     </row>
@@ -11007,46 +10762,46 @@
       <c r="AA54" s="16">
         <v>2.52154386119284</v>
       </c>
-      <c r="AB54" s="27">
+      <c r="AB54" s="30">
         <v>2.74317396411681</v>
       </c>
-      <c r="AC54" s="35">
+      <c r="AC54" s="38">
         <v>1.49557271379496</v>
       </c>
-      <c r="AD54" s="36">
+      <c r="AD54" s="38">
         <v>2.07031468371911</v>
       </c>
-      <c r="AE54" s="36">
+      <c r="AE54" s="38">
         <v>2.28364171461442</v>
       </c>
-      <c r="AF54" s="36">
+      <c r="AF54" s="38">
         <v>4.04752205875896</v>
       </c>
-      <c r="AG54" s="36">
+      <c r="AG54" s="38">
         <v>5.66164709710301</v>
       </c>
-      <c r="AH54" s="27">
+      <c r="AH54" s="30">
         <v>10.8843864667974</v>
       </c>
       <c r="AI54" s="15">
         <v>0.892334316705418</v>
       </c>
-      <c r="AJ54" s="36">
+      <c r="AJ54" s="38">
         <v>1.3541414181916</v>
       </c>
-      <c r="AK54" s="36">
+      <c r="AK54" s="38">
         <v>22.5961896949482</v>
       </c>
-      <c r="AL54" s="36">
+      <c r="AL54" s="38">
         <v>48.744867000933</v>
       </c>
-      <c r="AM54" s="36">
+      <c r="AM54" s="38">
         <v>73.3739582021686</v>
       </c>
-      <c r="AN54" s="27">
+      <c r="AN54" s="30">
         <v>81.2027329138736</v>
       </c>
-      <c r="AO54" s="52">
+      <c r="AO54" s="53">
         <v>0.892952061355069</v>
       </c>
     </row>
@@ -11070,46 +10825,46 @@
       <c r="AA55" s="16">
         <v>4.13041065187002</v>
       </c>
-      <c r="AB55" s="27">
+      <c r="AB55" s="30">
         <v>4.75831495223867</v>
       </c>
-      <c r="AC55" s="35">
+      <c r="AC55" s="38">
         <v>1.86157850377112</v>
       </c>
-      <c r="AD55" s="36">
+      <c r="AD55" s="38">
         <v>1.49159789390666</v>
       </c>
-      <c r="AE55" s="36">
+      <c r="AE55" s="38">
         <v>2.79008338651659</v>
       </c>
-      <c r="AF55" s="36">
+      <c r="AF55" s="38">
         <v>3.44290995388209</v>
       </c>
-      <c r="AG55" s="36">
+      <c r="AG55" s="38">
         <v>6.04384133522943</v>
       </c>
-      <c r="AH55" s="27">
+      <c r="AH55" s="30">
         <v>7.36599846988626</v>
       </c>
       <c r="AI55" s="15">
         <v>0.771043086378568</v>
       </c>
-      <c r="AJ55" s="36">
+      <c r="AJ55" s="38">
         <v>1.18076825331068</v>
       </c>
-      <c r="AK55" s="36">
+      <c r="AK55" s="38">
         <v>22.2206246489603</v>
       </c>
-      <c r="AL55" s="36">
+      <c r="AL55" s="38">
         <v>42.9802416243677</v>
       </c>
-      <c r="AM55" s="36">
+      <c r="AM55" s="38">
         <v>68.3916911817687</v>
       </c>
-      <c r="AN55" s="27">
+      <c r="AN55" s="30">
         <v>74.0795323715894</v>
       </c>
-      <c r="AO55" s="52">
+      <c r="AO55" s="53">
         <v>0.642167700718245</v>
       </c>
     </row>
@@ -11133,10 +10888,10 @@
       <c r="AA56" s="18">
         <v>4.01603746738088</v>
       </c>
-      <c r="AB56" s="28">
+      <c r="AB56" s="31">
         <v>4.32969007082389</v>
       </c>
-      <c r="AC56" s="37">
+      <c r="AC56" s="18">
         <v>1.47660404597227</v>
       </c>
       <c r="AD56" s="18">
@@ -11151,7 +10906,7 @@
       <c r="AG56" s="18">
         <v>3.99533007184095</v>
       </c>
-      <c r="AH56" s="28">
+      <c r="AH56" s="31">
         <v>7.53433903706027</v>
       </c>
       <c r="AI56" s="17">
@@ -11169,10 +10924,10 @@
       <c r="AM56" s="18">
         <v>52.9148443058522</v>
       </c>
-      <c r="AN56" s="28">
+      <c r="AN56" s="31">
         <v>85.0569315203254</v>
       </c>
-      <c r="AO56" s="52">
+      <c r="AO56" s="58">
         <v>0.648486639347858</v>
       </c>
     </row>
@@ -11196,7 +10951,7 @@
         <f t="shared" si="3"/>
         <v>4.00888988778348</v>
       </c>
-      <c r="AA57" s="29">
+      <c r="AA57" s="32">
         <f t="shared" si="3"/>
         <v>3.54038381652246</v>
       </c>
@@ -11204,7 +10959,7 @@
         <f t="shared" si="3"/>
         <v>3.59212028146308</v>
       </c>
-      <c r="AC57" s="29">
+      <c r="AC57" s="32">
         <f t="shared" si="3"/>
         <v>1.59622674399063</v>
       </c>
@@ -11228,7 +10983,7 @@
         <f t="shared" si="3"/>
         <v>9.59638846351782</v>
       </c>
-      <c r="AI57" s="29">
+      <c r="AI57" s="32">
         <f t="shared" si="3"/>
         <v>0.740595157489052</v>
       </c>
@@ -11248,11 +11003,11 @@
         <f t="shared" si="3"/>
         <v>67.0435116537246</v>
       </c>
-      <c r="AN57" s="19">
+      <c r="AN57" s="40">
         <f t="shared" si="3"/>
         <v>69.5672321523222</v>
       </c>
-      <c r="AO57" s="19">
+      <c r="AO57" s="59">
         <f t="shared" si="3"/>
         <v>0.743096936963935</v>
       </c>
@@ -11261,142 +11016,204 @@
       <c r="V58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="38"/>
-      <c r="AD58" s="38"/>
-      <c r="AE58" s="38"/>
-      <c r="AF58" s="38"/>
-      <c r="AG58" s="38"/>
-      <c r="AH58" s="38"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="38"/>
-      <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
-      <c r="AN58" s="38"/>
-      <c r="AO58" s="21"/>
+      <c r="W58" s="21">
+        <f>STDEV(W7:W56)</f>
+        <v>2.13641063648968</v>
+      </c>
+      <c r="X58" s="21">
+        <f t="shared" ref="X58:AO58" si="4">STDEV(X7:X56)</f>
+        <v>1.40339673681914</v>
+      </c>
+      <c r="Y58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.797992801326256</v>
+      </c>
+      <c r="Z58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.644327801948476</v>
+      </c>
+      <c r="AA58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.52454013720022</v>
+      </c>
+      <c r="AB58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.648850089810452</v>
+      </c>
+      <c r="AC58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.151469479453306</v>
+      </c>
+      <c r="AD58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.19971502013527</v>
+      </c>
+      <c r="AE58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.398501047472015</v>
+      </c>
+      <c r="AF58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.587677004991064</v>
+      </c>
+      <c r="AG58" s="21">
+        <f t="shared" si="4"/>
+        <v>1.17038983453437</v>
+      </c>
+      <c r="AH58" s="21">
+        <f t="shared" si="4"/>
+        <v>1.93177443395132</v>
+      </c>
+      <c r="AI58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.0788469004271846</v>
+      </c>
+      <c r="AJ58" s="21">
+        <f t="shared" si="4"/>
+        <v>0.158702565878424</v>
+      </c>
+      <c r="AK58" s="21">
+        <f t="shared" si="4"/>
+        <v>5.83019739795242</v>
+      </c>
+      <c r="AL58" s="21">
+        <f t="shared" si="4"/>
+        <v>8.98408883112743</v>
+      </c>
+      <c r="AM58" s="21">
+        <f t="shared" si="4"/>
+        <v>12.3895123330399</v>
+      </c>
+      <c r="AN58" s="21">
+        <f t="shared" si="4"/>
+        <v>13.62047731367</v>
+      </c>
+      <c r="AO58" s="60">
+        <f t="shared" si="4"/>
+        <v>0.0904736875115674</v>
+      </c>
     </row>
     <row r="59" spans="23:41">
       <c r="W59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="33"/>
       <c r="AC59" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
+      <c r="AD59" s="23"/>
+      <c r="AE59" s="23"/>
+      <c r="AF59" s="23"/>
+      <c r="AG59" s="23"/>
+      <c r="AH59" s="33"/>
       <c r="AI59" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22" t="s">
+      <c r="AJ59" s="23"/>
+      <c r="AK59" s="23"/>
+      <c r="AL59" s="23"/>
+      <c r="AM59" s="23"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="23:41">
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="22"/>
-      <c r="AM60" s="22"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="22"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="34"/>
+      <c r="AI60" s="24"/>
+      <c r="AJ60" s="25"/>
+      <c r="AK60" s="25"/>
+      <c r="AL60" s="25"/>
+      <c r="AM60" s="25"/>
+      <c r="AN60" s="34"/>
+      <c r="AO60" s="62"/>
     </row>
-    <row r="61" spans="28:29">
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
+    <row r="61" spans="27:29">
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
     </row>
-    <row r="62" spans="28:29">
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="31"/>
+    <row r="62" spans="27:29">
+      <c r="AA62" s="35"/>
+      <c r="AC62" s="35"/>
     </row>
-    <row r="63" spans="28:29">
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
+    <row r="63" spans="27:29">
+      <c r="AA63" s="35"/>
+      <c r="AC63" s="35"/>
     </row>
-    <row r="64" spans="28:29">
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="31"/>
+    <row r="64" spans="27:29">
+      <c r="AA64" s="35"/>
+      <c r="AC64" s="35"/>
     </row>
-    <row r="65" spans="28:28">
-      <c r="AB65" s="31"/>
+    <row r="65" spans="27:27">
+      <c r="AA65" s="35"/>
     </row>
-    <row r="66" spans="28:28">
-      <c r="AB66" s="31"/>
+    <row r="66" spans="27:27">
+      <c r="AA66" s="35"/>
     </row>
-    <row r="67" spans="28:28">
-      <c r="AB67" s="31"/>
+    <row r="67" spans="27:27">
+      <c r="AA67" s="35"/>
     </row>
-    <row r="68" spans="28:28">
-      <c r="AB68" s="31"/>
+    <row r="68" spans="27:27">
+      <c r="AA68" s="35"/>
     </row>
-    <row r="69" spans="28:28">
-      <c r="AB69" s="31"/>
+    <row r="69" spans="27:27">
+      <c r="AA69" s="35"/>
     </row>
-    <row r="70" spans="28:28">
-      <c r="AB70" s="31"/>
+    <row r="70" spans="27:27">
+      <c r="AA70" s="35"/>
     </row>
-    <row r="71" spans="28:28">
-      <c r="AB71" s="31"/>
+    <row r="71" spans="27:27">
+      <c r="AA71" s="35"/>
     </row>
-    <row r="72" spans="28:28">
-      <c r="AB72" s="31"/>
+    <row r="72" spans="27:27">
+      <c r="AA72" s="35"/>
     </row>
-    <row r="73" spans="28:28">
-      <c r="AB73" s="31"/>
+    <row r="73" spans="27:45">
+      <c r="AA73" s="35"/>
+      <c r="AS73" s="63"/>
     </row>
-    <row r="74" spans="28:28">
-      <c r="AB74" s="31"/>
+    <row r="74" spans="27:45">
+      <c r="AA74" s="35"/>
+      <c r="AS74" s="63"/>
     </row>
-    <row r="75" spans="28:28">
-      <c r="AB75" s="31"/>
+    <row r="75" spans="27:45">
+      <c r="AA75" s="35"/>
+      <c r="AS75" s="63"/>
     </row>
-    <row r="76" spans="28:28">
-      <c r="AB76" s="31"/>
+    <row r="76" spans="27:45">
+      <c r="AA76" s="35"/>
+      <c r="AS76" s="63"/>
     </row>
-    <row r="77" spans="28:28">
-      <c r="AB77" s="31"/>
+    <row r="77" spans="27:45">
+      <c r="AA77" s="35"/>
+      <c r="AS77" s="63"/>
     </row>
-    <row r="78" spans="28:28">
-      <c r="AB78" s="31"/>
+    <row r="78" spans="27:45">
+      <c r="AA78" s="35"/>
+      <c r="AS78" s="63"/>
     </row>
-    <row r="79" spans="28:28">
-      <c r="AB79" s="31"/>
+    <row r="79" spans="27:45">
+      <c r="AA79" s="35"/>
+      <c r="AS79" s="63"/>
     </row>
-    <row r="80" spans="28:28">
-      <c r="AB80" s="31"/>
-    </row>
-    <row r="81" spans="28:28">
-      <c r="AB81" s="31"/>
+    <row r="80" spans="27:27">
+      <c r="AA80" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
